--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_3_bus_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_3_bus_ward34_impedance.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719461613</v>
+        <v>0.9618627255185428</v>
       </c>
       <c r="G2">
-        <v>-0.735082159943949</v>
+        <v>-1.570796136727088</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7114206315441972</v>
+        <v>0.4199934651527246</v>
       </c>
       <c r="G3">
-        <v>-7.271100281033766</v>
+        <v>-24.90223265368535</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124702232327</v>
+        <v>0.1679973860556158</v>
       </c>
       <c r="G4">
-        <v>-2.952918836455984</v>
+        <v>-24.90223264882382</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -598,22 +598,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265512.78223</v>
+        <v>3.699928183877141</v>
       </c>
       <c r="C5">
-        <v>1100000024503.42</v>
+        <v>128.169271976625</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>0.06018306199960888</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000003098319</v>
+        <v>73.51070108074346</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023177063</v>
+        <v>0.08399869302364661</v>
       </c>
       <c r="G6">
-        <v>-2.999564986050568E-08</v>
+        <v>-24.90223264041138</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538990561</v>
+        <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>1.02813441843736</v>
+        <v>0.9618627255197193</v>
       </c>
       <c r="P2">
-        <v>1.077959469417914</v>
+        <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>28.17453160839172</v>
+        <v>26.46268431694228</v>
       </c>
       <c r="R2">
-        <v>-90.69428644466072</v>
+        <v>-91.57079613676153</v>
       </c>
       <c r="S2">
-        <v>151.5326674578527</v>
+        <v>152.8993938557652</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672226601</v>
+        <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>0.7311545119290672</v>
+        <v>0.4199934651621023</v>
       </c>
       <c r="P3">
-        <v>0.9850786996037839</v>
+        <v>0.8849458407134004</v>
       </c>
       <c r="Q3">
-        <v>19.99748951274318</v>
+        <v>10.36827052971092</v>
       </c>
       <c r="R3">
-        <v>-96.70515799160647</v>
+        <v>-114.9022326535645</v>
       </c>
       <c r="S3">
-        <v>158.4629648494932</v>
+        <v>167.570584904511</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660742431</v>
+        <v>0.9909306888778326</v>
       </c>
       <c r="O4">
-        <v>0.6093826336279413</v>
+        <v>0.1679973860669872</v>
       </c>
       <c r="P4">
-        <v>0.9943261548447578</v>
+        <v>0.9204173017492231</v>
       </c>
       <c r="Q4">
-        <v>17.35880671268257</v>
+        <v>4.409620443404044</v>
       </c>
       <c r="R4">
-        <v>-92.67653586117511</v>
+        <v>-114.9022326490688</v>
       </c>
       <c r="S4">
-        <v>162.205196338886</v>
+        <v>175.2518098001975</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032812.63088</v>
+        <v>3.204231799390412</v>
       </c>
       <c r="D5">
-        <v>28040032812.63088</v>
+        <v>3.204231799390412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409849.1676</v>
+        <v>36.99928183848027</v>
       </c>
       <c r="G5">
-        <v>323778409849.1676</v>
+        <v>36.99928183848027</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -917,34 +917,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604313</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564871</v>
       </c>
       <c r="N5">
-        <v>0.9713352289688458</v>
+        <v>0.9526279648039775</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289577751</v>
+        <v>0.9526279648057683</v>
       </c>
       <c r="Q5">
-        <v>-5.662241758910234E-10</v>
+        <v>-1.430941311343419E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999994265</v>
+        <v>-179.9999999999792</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023955133</v>
+        <v>0.9710601884679121</v>
       </c>
       <c r="O6">
-        <v>1.100000023257053</v>
+        <v>0.08399869303568247</v>
       </c>
       <c r="P6">
-        <v>1.100000023472996</v>
+        <v>0.935719017250938</v>
       </c>
       <c r="Q6">
-        <v>29.99999997956427</v>
+        <v>2.248283018886328</v>
       </c>
       <c r="R6">
-        <v>-90.00000002843602</v>
+        <v>-114.9022326412661</v>
       </c>
       <c r="S6">
-        <v>150.0000000070463</v>
+        <v>177.6667554660107</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023843703</v>
+        <v>1.097612874371399</v>
       </c>
       <c r="O2">
-        <v>1.10000002383721</v>
+        <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.100000023837856</v>
+        <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>29.99999999980454</v>
+        <v>28.13571929983947</v>
       </c>
       <c r="R2">
-        <v>-90.00000000034704</v>
+        <v>-91.691325962866</v>
       </c>
       <c r="S2">
-        <v>150.0000000000143</v>
+        <v>151.0929640471427</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023852572</v>
+        <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>1.100000023819356</v>
+        <v>0.7889914957619026</v>
       </c>
       <c r="P3">
-        <v>1.100000023820757</v>
+        <v>0.9451006847892721</v>
       </c>
       <c r="Q3">
-        <v>29.99999999900674</v>
+        <v>20.24709464694268</v>
       </c>
       <c r="R3">
-        <v>-90.00000000190305</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>150.0000000000429</v>
+        <v>156.0082067402618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023851363</v>
+        <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>1.100000023805589</v>
+        <v>0.6610662947114375</v>
       </c>
       <c r="P4">
-        <v>1.100000023815354</v>
+        <v>0.9321671592612577</v>
       </c>
       <c r="Q4">
-        <v>29.99999999862454</v>
+        <v>17.32147694956704</v>
       </c>
       <c r="R4">
-        <v>-90.00000000215981</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
-        <v>150.0000000002899</v>
+        <v>159.8377717076658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.111269904411659</v>
+        <v>1.628672512805917</v>
       </c>
       <c r="D5">
-        <v>3.111269904411659</v>
+        <v>1.628672512805917</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.92585033667305</v>
+        <v>18.80629027380481</v>
       </c>
       <c r="G5">
-        <v>35.92585033667305</v>
+        <v>18.80629027380481</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1284,34 +1284,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604313</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564871</v>
       </c>
       <c r="N5">
-        <v>1.100000023859658</v>
+        <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>1.100000023755553</v>
+        <v>0.5758226890677859</v>
       </c>
       <c r="P5">
-        <v>1.100000023783448</v>
+        <v>0.9259084304691394</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>15.27863230041745</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-104.0410782188621</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>162.4426920027739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.6184394066324069</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.928797766054184</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>16.30922779350172</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>161.1358439017222</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023843703</v>
+        <v>1.097612874371399</v>
       </c>
       <c r="O2">
-        <v>1.10000002383721</v>
+        <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.100000023837856</v>
+        <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>29.99999999980454</v>
+        <v>28.13571929983947</v>
       </c>
       <c r="R2">
-        <v>-90.00000000034704</v>
+        <v>-91.691325962866</v>
       </c>
       <c r="S2">
-        <v>150.0000000000143</v>
+        <v>151.0929640471427</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023852572</v>
+        <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>1.100000023819356</v>
+        <v>0.7889914957619026</v>
       </c>
       <c r="P3">
-        <v>1.100000023820757</v>
+        <v>0.9451006847892721</v>
       </c>
       <c r="Q3">
-        <v>29.99999999900674</v>
+        <v>20.24709464694268</v>
       </c>
       <c r="R3">
-        <v>-90.00000000190305</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>150.0000000000429</v>
+        <v>156.0082067402618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023851363</v>
+        <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>1.100000023805589</v>
+        <v>0.6610662947114375</v>
       </c>
       <c r="P4">
-        <v>1.100000023815354</v>
+        <v>0.9321671592612577</v>
       </c>
       <c r="Q4">
-        <v>29.99999999862454</v>
+        <v>17.32147694956704</v>
       </c>
       <c r="R4">
-        <v>-90.00000000215981</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
-        <v>150.0000000002899</v>
+        <v>159.8377717076658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.111269904411659</v>
+        <v>1.628672512805917</v>
       </c>
       <c r="D5">
-        <v>3.111269904411659</v>
+        <v>1.628672512805917</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.92585033667305</v>
+        <v>18.80629027380481</v>
       </c>
       <c r="G5">
-        <v>35.92585033667305</v>
+        <v>18.80629027380481</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1651,34 +1651,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604313</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564871</v>
       </c>
       <c r="N5">
-        <v>1.100000023859658</v>
+        <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>1.100000023755553</v>
+        <v>0.5758226890677859</v>
       </c>
       <c r="P5">
-        <v>1.100000023783448</v>
+        <v>0.9259084304691394</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>15.27863230041745</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-104.0410782188621</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>162.4426920027739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.6184394066324069</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.928797766054184</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>16.30922779350172</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>161.1358439017222</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257942804</v>
+        <v>0.9929355927218108</v>
       </c>
       <c r="O2">
-        <v>0.9364965948332566</v>
+        <v>0.8804584269842806</v>
       </c>
       <c r="P2">
-        <v>0.9748156030436066</v>
+        <v>0.9495696022608427</v>
       </c>
       <c r="Q2">
-        <v>28.05924688048685</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-91.44625255184005</v>
+        <v>-93.16654538439109</v>
       </c>
       <c r="S2">
-        <v>151.3289570016653</v>
+        <v>152.425513590047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624874911</v>
+        <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.7097178126774336</v>
+        <v>0.5037062977969645</v>
       </c>
       <c r="P3">
-        <v>0.8774140244573831</v>
+        <v>0.7639425556035886</v>
       </c>
       <c r="Q3">
-        <v>20.55281704144438</v>
+        <v>12.09779838981258</v>
       </c>
       <c r="R3">
-        <v>-100.5742849559743</v>
+        <v>-121.7925562883315</v>
       </c>
       <c r="S3">
-        <v>156.7312439665724</v>
+        <v>163.7271795849222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644628321</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.5675512578434242</v>
+        <v>0.2014825191277488</v>
       </c>
       <c r="P4">
-        <v>0.8972376976791485</v>
+        <v>0.8174473005965646</v>
       </c>
       <c r="Q4">
-        <v>17.58460736508978</v>
+        <v>5.322483588802224</v>
       </c>
       <c r="R4">
-        <v>-94.38698936937116</v>
+        <v>-121.7925562833985</v>
       </c>
       <c r="S4">
-        <v>161.6677107617716</v>
+        <v>173.987338884872</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938360.24592</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="D5">
-        <v>25490938360.24592</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002483.6829</v>
+        <v>30.09210594132325</v>
       </c>
       <c r="G5">
-        <v>294344002483.6829</v>
+        <v>30.09210594132325</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2018,34 +2018,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.883032007201507</v>
+        <v>0.866025403788673</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071925261</v>
+        <v>0.8660254037890386</v>
       </c>
       <c r="Q5">
-        <v>-5.053376569759075E-10</v>
+        <v>1.923020835167953E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999994874</v>
+        <v>179.9999999997995</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000140326</v>
+        <v>0.8935891429579178</v>
       </c>
       <c r="O6">
-        <v>0.9999999997663542</v>
+        <v>0.1007412595722656</v>
       </c>
       <c r="P6">
-        <v>0.9999999997575598</v>
+        <v>0.8405788745222766</v>
       </c>
       <c r="Q6">
-        <v>29.99999998811561</v>
+        <v>2.746170498569049</v>
       </c>
       <c r="R6">
-        <v>-90.00000002483225</v>
+        <v>-121.7925562748669</v>
       </c>
       <c r="S6">
-        <v>150.0000000001907</v>
+        <v>177.0804994190644</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257942804</v>
+        <v>0.9929355927218108</v>
       </c>
       <c r="O2">
-        <v>0.9364965948332566</v>
+        <v>0.8804584269842806</v>
       </c>
       <c r="P2">
-        <v>0.9748156030436066</v>
+        <v>0.9495696022608427</v>
       </c>
       <c r="Q2">
-        <v>28.05924688048685</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-91.44625255184005</v>
+        <v>-93.16654538439109</v>
       </c>
       <c r="S2">
-        <v>151.3289570016653</v>
+        <v>152.425513590047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624874911</v>
+        <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.7097178126774336</v>
+        <v>0.5037062977969645</v>
       </c>
       <c r="P3">
-        <v>0.8774140244573831</v>
+        <v>0.7639425556035886</v>
       </c>
       <c r="Q3">
-        <v>20.55281704144438</v>
+        <v>12.09779838981258</v>
       </c>
       <c r="R3">
-        <v>-100.5742849559743</v>
+        <v>-121.7925562883315</v>
       </c>
       <c r="S3">
-        <v>156.7312439665724</v>
+        <v>163.7271795849222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644628321</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.5675512578434242</v>
+        <v>0.2014825191277488</v>
       </c>
       <c r="P4">
-        <v>0.8972376976791485</v>
+        <v>0.8174473005965646</v>
       </c>
       <c r="Q4">
-        <v>17.58460736508978</v>
+        <v>5.322483588802224</v>
       </c>
       <c r="R4">
-        <v>-94.38698936937116</v>
+        <v>-121.7925562833985</v>
       </c>
       <c r="S4">
-        <v>161.6677107617716</v>
+        <v>173.987338884872</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938360.24592</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="D5">
-        <v>25490938360.24592</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002483.6829</v>
+        <v>30.09210594132325</v>
       </c>
       <c r="G5">
-        <v>294344002483.6829</v>
+        <v>30.09210594132325</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2385,34 +2385,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.883032007201507</v>
+        <v>0.866025403788673</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071925261</v>
+        <v>0.8660254037890386</v>
       </c>
       <c r="Q5">
-        <v>-5.053376569759075E-10</v>
+        <v>1.923020835167953E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999994874</v>
+        <v>179.9999999997995</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000140326</v>
+        <v>0.8935891429579178</v>
       </c>
       <c r="O6">
-        <v>0.9999999997663542</v>
+        <v>0.1007412595722656</v>
       </c>
       <c r="P6">
-        <v>0.9999999997575598</v>
+        <v>0.8405788745222766</v>
       </c>
       <c r="Q6">
-        <v>29.99999998811561</v>
+        <v>2.746170498569049</v>
       </c>
       <c r="R6">
-        <v>-90.00000002483225</v>
+        <v>-121.7925562748669</v>
       </c>
       <c r="S6">
-        <v>150.0000000001907</v>
+        <v>177.0804994190644</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000002324</v>
+        <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>0.999999999996885</v>
+        <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>0.9999999999962661</v>
+        <v>0.9703704959111742</v>
       </c>
       <c r="Q2">
-        <v>29.99999999982096</v>
+        <v>28.0357480611579</v>
       </c>
       <c r="R2">
-        <v>-90.00000000039505</v>
+        <v>-92.10361953460276</v>
       </c>
       <c r="S2">
-        <v>149.9999999999755</v>
+        <v>151.0052246358092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000012009</v>
+        <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.9999999999866982</v>
+        <v>0.7448705945366209</v>
       </c>
       <c r="P3">
-        <v>0.9999999999820391</v>
+        <v>0.855112354021765</v>
       </c>
       <c r="Q3">
-        <v>29.99999999917301</v>
+        <v>20.67709037248193</v>
       </c>
       <c r="R3">
-        <v>-90.00000000196763</v>
+        <v>-104.1311854330021</v>
       </c>
       <c r="S3">
-        <v>149.9999999998513</v>
+        <v>155.0163347176377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000000000009397</v>
+        <v>0.9691149430901757</v>
       </c>
       <c r="O4">
-        <v>0.9999999999694131</v>
+        <v>0.5884255246251151</v>
       </c>
       <c r="P4">
-        <v>0.9999999999763129</v>
+        <v>0.856702122155124</v>
       </c>
       <c r="Q4">
-        <v>29.99999999867996</v>
+        <v>17.29967291872722</v>
       </c>
       <c r="R4">
-        <v>-90.00000000218134</v>
+        <v>-101.6177951673501</v>
       </c>
       <c r="S4">
-        <v>150.000000000226</v>
+        <v>160.3429768147775</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2731,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.828427124524274</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="D5">
-        <v>2.828427124524274</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.65986323454657</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="G5">
-        <v>32.65986323454657</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2752,34 +2752,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.000000000016182</v>
+        <v>0.9353465602742624</v>
       </c>
       <c r="O5">
-        <v>0.9999999999215406</v>
+        <v>0.4850955530357801</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468998</v>
+        <v>0.8618501377741075</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>14.83811452875882</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-99.04485975339256</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>163.8634513655829</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9520111306336771</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.5366264965011802</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.858870657045489</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>16.09072026904601</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>162.1084886349017</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000002324</v>
+        <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>0.999999999996885</v>
+        <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>0.9999999999962661</v>
+        <v>0.9703704959111742</v>
       </c>
       <c r="Q2">
-        <v>29.99999999982096</v>
+        <v>28.0357480611579</v>
       </c>
       <c r="R2">
-        <v>-90.00000000039505</v>
+        <v>-92.10361953460276</v>
       </c>
       <c r="S2">
-        <v>149.9999999999755</v>
+        <v>151.0052246358092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000012009</v>
+        <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.9999999999866982</v>
+        <v>0.7448705945366209</v>
       </c>
       <c r="P3">
-        <v>0.9999999999820391</v>
+        <v>0.855112354021765</v>
       </c>
       <c r="Q3">
-        <v>29.99999999917301</v>
+        <v>20.67709037248193</v>
       </c>
       <c r="R3">
-        <v>-90.00000000196763</v>
+        <v>-104.1311854330021</v>
       </c>
       <c r="S3">
-        <v>149.9999999998513</v>
+        <v>155.0163347176377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000000000009397</v>
+        <v>0.9691149430901757</v>
       </c>
       <c r="O4">
-        <v>0.9999999999694131</v>
+        <v>0.5884255246251151</v>
       </c>
       <c r="P4">
-        <v>0.9999999999763129</v>
+        <v>0.856702122155124</v>
       </c>
       <c r="Q4">
-        <v>29.99999999867996</v>
+        <v>17.29967291872722</v>
       </c>
       <c r="R4">
-        <v>-90.00000000218134</v>
+        <v>-101.6177951673501</v>
       </c>
       <c r="S4">
-        <v>150.000000000226</v>
+        <v>160.3429768147775</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3098,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.828427124524274</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="D5">
-        <v>2.828427124524274</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.65986323454657</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="G5">
-        <v>32.65986323454657</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3119,34 +3119,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.000000000016182</v>
+        <v>0.9353465602742624</v>
       </c>
       <c r="O5">
-        <v>0.9999999999215406</v>
+        <v>0.4850955530357801</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468998</v>
+        <v>0.8618501377741075</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>14.83811452875882</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-99.04485975339256</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>163.8634513655829</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9520111306336771</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.5366264965011802</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.858870657045489</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>16.09072026904601</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>162.1084886349017</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056549526480552</v>
+        <v>0.9855289333155798</v>
       </c>
       <c r="O2">
-        <v>1.096025874295463</v>
+        <v>1.100000023847349</v>
       </c>
       <c r="P2">
-        <v>1.064011720994169</v>
+        <v>1.010694118906341</v>
       </c>
       <c r="Q2">
-        <v>30.75110891978736</v>
+        <v>32.33756670924905</v>
       </c>
       <c r="R2">
-        <v>-90.03597890937083</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S2">
-        <v>148.5090295570264</v>
+        <v>145.4744899280122</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8698873595367208</v>
+        <v>0.5160681836901987</v>
       </c>
       <c r="O3">
-        <v>1.079357280163096</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P3">
-        <v>0.9301280085823241</v>
+        <v>0.7767016301140777</v>
       </c>
       <c r="Q3">
-        <v>33.98935893439618</v>
+        <v>50.26234521814136</v>
       </c>
       <c r="R3">
-        <v>-90.25035334549365</v>
+        <v>-89.99999999999606</v>
       </c>
       <c r="S3">
-        <v>140.3871932115768</v>
+        <v>115.1352157588075</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8286421988143376</v>
+        <v>0.5062405989736879</v>
       </c>
       <c r="O4">
-        <v>1.072860426768126</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P4">
-        <v>0.850172095436787</v>
+        <v>0.6253440371463854</v>
       </c>
       <c r="Q4">
-        <v>38.74753265801621</v>
+        <v>74.88997785745472</v>
       </c>
       <c r="R4">
-        <v>-90.08395622769365</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>139.3155868668786</v>
+        <v>102.1824476978298</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265507.00517</v>
+        <v>5.54989227551463</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366666674767.7657</v>
+        <v>64.08463598483593</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3498,37 +3498,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.97439859016507</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902605289</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564813</v>
       </c>
       <c r="N5">
-        <v>0.5832496258786899</v>
+        <v>0.5500000119538256</v>
       </c>
       <c r="O5">
-        <v>1.039230824772722</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P5">
-        <v>0.5832496257441716</v>
+        <v>0.5500000118969871</v>
       </c>
       <c r="Q5">
-        <v>62.98619604527649</v>
+        <v>89.9999999940423</v>
       </c>
       <c r="R5">
-        <v>-89.99999999827918</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S5">
-        <v>117.0138039648877</v>
+        <v>90.00000000595071</v>
       </c>
       <c r="T5">
-        <v>31754265507.00517</v>
+        <v>5.549892275514631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023306467</v>
+        <v>0.5235436402866923</v>
       </c>
       <c r="O6">
-        <v>1.100000023762891</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P6">
-        <v>1.100000023621701</v>
+        <v>0.5843678239000886</v>
       </c>
       <c r="Q6">
-        <v>29.99999999319366</v>
+        <v>82.75981206765211</v>
       </c>
       <c r="R6">
-        <v>-90.0000000015675</v>
+        <v>-89.99999999999618</v>
       </c>
       <c r="S6">
-        <v>149.9999999752171</v>
+        <v>96.48316610499738</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056549526480552</v>
+        <v>0.9855289333155798</v>
       </c>
       <c r="O2">
-        <v>1.096025874295463</v>
+        <v>1.100000023847349</v>
       </c>
       <c r="P2">
-        <v>1.064011720994169</v>
+        <v>1.010694118906341</v>
       </c>
       <c r="Q2">
-        <v>30.75110891978736</v>
+        <v>32.33756670924905</v>
       </c>
       <c r="R2">
-        <v>-90.03597890937083</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S2">
-        <v>148.5090295570264</v>
+        <v>145.4744899280122</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8698873595367208</v>
+        <v>0.5160681836901987</v>
       </c>
       <c r="O3">
-        <v>1.079357280163096</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P3">
-        <v>0.9301280085823241</v>
+        <v>0.7767016301140777</v>
       </c>
       <c r="Q3">
-        <v>33.98935893439618</v>
+        <v>50.26234521814136</v>
       </c>
       <c r="R3">
-        <v>-90.25035334549365</v>
+        <v>-89.99999999999606</v>
       </c>
       <c r="S3">
-        <v>140.3871932115768</v>
+        <v>115.1352157588075</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8286421988143376</v>
+        <v>0.5062405989736879</v>
       </c>
       <c r="O4">
-        <v>1.072860426768126</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P4">
-        <v>0.850172095436787</v>
+        <v>0.6253440371463854</v>
       </c>
       <c r="Q4">
-        <v>38.74753265801621</v>
+        <v>74.88997785745472</v>
       </c>
       <c r="R4">
-        <v>-90.08395622769365</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>139.3155868668786</v>
+        <v>102.1824476978298</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265507.00517</v>
+        <v>5.54989227551463</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366666674767.7657</v>
+        <v>64.08463598483593</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3883,37 +3883,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.97439859016507</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902605289</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564813</v>
       </c>
       <c r="N5">
-        <v>0.5832496258786899</v>
+        <v>0.5500000119538256</v>
       </c>
       <c r="O5">
-        <v>1.039230824772722</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P5">
-        <v>0.5832496257441716</v>
+        <v>0.5500000118969871</v>
       </c>
       <c r="Q5">
-        <v>62.98619604527649</v>
+        <v>89.9999999940423</v>
       </c>
       <c r="R5">
-        <v>-89.99999999827918</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S5">
-        <v>117.0138039648877</v>
+        <v>90.00000000595071</v>
       </c>
       <c r="T5">
-        <v>31754265507.00517</v>
+        <v>5.549892275514631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023306467</v>
+        <v>0.5235436402866923</v>
       </c>
       <c r="O6">
-        <v>1.100000023762891</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P6">
-        <v>1.100000023621701</v>
+        <v>0.5843678239000886</v>
       </c>
       <c r="Q6">
-        <v>29.99999999319366</v>
+        <v>82.75981206765211</v>
       </c>
       <c r="R6">
-        <v>-90.0000000015675</v>
+        <v>-89.99999999999618</v>
       </c>
       <c r="S6">
-        <v>149.9999999752171</v>
+        <v>96.48316610499738</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023839535</v>
+        <v>1.069480738650142</v>
       </c>
       <c r="O2">
-        <v>1.100000023841699</v>
+        <v>1.100000023843465</v>
       </c>
       <c r="P2">
-        <v>1.100000023841484</v>
+        <v>1.086199563901171</v>
       </c>
       <c r="Q2">
-        <v>29.9999999999452</v>
+        <v>29.93059260124622</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999998688</v>
+        <v>148.5714693547407</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10000002382996</v>
+        <v>0.9404140809722226</v>
       </c>
       <c r="O3">
-        <v>1.100000023841032</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P3">
-        <v>1.100000023840565</v>
+        <v>1.043645148716251</v>
       </c>
       <c r="Q3">
-        <v>29.99999999968408</v>
+        <v>29.06827467781987</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000618</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>149.9999999993322</v>
+        <v>141.9605338400084</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023825514</v>
+        <v>0.8947483932554361</v>
       </c>
       <c r="O4">
-        <v>1.100000023840772</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P4">
-        <v>1.100000023837517</v>
+        <v>0.9992901481674378</v>
       </c>
       <c r="Q4">
-        <v>29.99999999973244</v>
+        <v>30.93784573119521</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999963</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S4">
-        <v>149.9999999991709</v>
+        <v>140.1740634955099</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.388525286637515</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.74179936354211</v>
+        <v>16.03330896033543</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4268,37 +4268,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.97439859016507</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902605289</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564813</v>
       </c>
       <c r="N5">
-        <v>1.100000023804725</v>
+        <v>0.8648802219738844</v>
       </c>
       <c r="O5">
-        <v>1.100000023839427</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P5">
-        <v>1.100000023830129</v>
+        <v>0.9703007874836257</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>32.29296429119218</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.8931587552372</v>
       </c>
       <c r="T5">
-        <v>1.796292516902737</v>
+        <v>1.388525286637515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8797528069046628</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9847339578089791</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>31.60390349352726</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>139.5430379956034</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719461613</v>
+        <v>0.9618627255185428</v>
       </c>
       <c r="G2">
-        <v>-0.735082159943949</v>
+        <v>-1.570796136727088</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7114206315441972</v>
+        <v>0.4199934651527246</v>
       </c>
       <c r="G3">
-        <v>-7.271100281033766</v>
+        <v>-24.90223265368535</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124702232327</v>
+        <v>0.1679973860556158</v>
       </c>
       <c r="G4">
-        <v>-2.952918836455984</v>
+        <v>-24.90223264882382</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4473,22 +4473,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265512.78223</v>
+        <v>3.699928183877141</v>
       </c>
       <c r="C5">
-        <v>1100000024503.42</v>
+        <v>128.169271976625</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>0.06018306199960888</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000003098319</v>
+        <v>73.51070108074346</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023177063</v>
+        <v>0.08399869302364661</v>
       </c>
       <c r="G6">
-        <v>-2.999564986050568E-08</v>
+        <v>-24.90223264041138</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023839535</v>
+        <v>1.069480738650142</v>
       </c>
       <c r="O2">
-        <v>1.100000023841699</v>
+        <v>1.100000023843465</v>
       </c>
       <c r="P2">
-        <v>1.100000023841484</v>
+        <v>1.086199563901171</v>
       </c>
       <c r="Q2">
-        <v>29.9999999999452</v>
+        <v>29.93059260124622</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999998688</v>
+        <v>148.5714693547407</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10000002382996</v>
+        <v>0.9404140809722226</v>
       </c>
       <c r="O3">
-        <v>1.100000023841032</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P3">
-        <v>1.100000023840565</v>
+        <v>1.043645148716251</v>
       </c>
       <c r="Q3">
-        <v>29.99999999968408</v>
+        <v>29.06827467781987</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000618</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>149.9999999993322</v>
+        <v>141.9605338400084</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023825514</v>
+        <v>0.8947483932554361</v>
       </c>
       <c r="O4">
-        <v>1.100000023840772</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P4">
-        <v>1.100000023837517</v>
+        <v>0.9992901481674378</v>
       </c>
       <c r="Q4">
-        <v>29.99999999973244</v>
+        <v>30.93784573119521</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999963</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S4">
-        <v>149.9999999991709</v>
+        <v>140.1740634955099</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.388525286637515</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.74179936354211</v>
+        <v>16.03330896033543</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4804,37 +4804,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.97439859016507</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902605289</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564813</v>
       </c>
       <c r="N5">
-        <v>1.100000023804725</v>
+        <v>0.8648802219738844</v>
       </c>
       <c r="O5">
-        <v>1.100000023839427</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P5">
-        <v>1.100000023830129</v>
+        <v>0.9703007874836257</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>32.29296429119218</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.8931587552372</v>
       </c>
       <c r="T5">
-        <v>1.796292516902737</v>
+        <v>1.388525286637515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8797528069046628</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9847339578089791</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>31.60390349352726</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>139.5430379956034</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9577658095314195</v>
+        <v>0.888417666617308</v>
       </c>
       <c r="O2">
-        <v>0.9964761462509538</v>
+        <v>0.999999999996202</v>
       </c>
       <c r="P2">
-        <v>0.9719096284686971</v>
+        <v>0.9346253859730064</v>
       </c>
       <c r="Q2">
-        <v>30.31669982299358</v>
+        <v>31.02345805161477</v>
       </c>
       <c r="R2">
-        <v>-90.07508069018778</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.1402189964033</v>
+        <v>144.5467024754364</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7946738960335693</v>
+        <v>0.4587681827456683</v>
       </c>
       <c r="O3">
-        <v>0.9833239238204809</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P3">
-        <v>0.884248443731638</v>
+        <v>0.8186035708257499</v>
       </c>
       <c r="Q3">
-        <v>31.07876275921497</v>
+        <v>36.08047684035247</v>
       </c>
       <c r="R3">
-        <v>-90.41924373727963</v>
+        <v>-89.99999999999628</v>
       </c>
       <c r="S3">
-        <v>139.60210347151</v>
+        <v>116.9319841378731</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7532601156058139</v>
+        <v>0.4341862411763744</v>
       </c>
       <c r="O4">
-        <v>0.9760205715746647</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P4">
-        <v>0.7858310070375107</v>
+        <v>0.6102254634619551</v>
       </c>
       <c r="Q4">
-        <v>37.72192694132781</v>
+        <v>70.02690230762913</v>
       </c>
       <c r="R4">
-        <v>-90.1407925013125</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S4">
-        <v>139.0387173129351</v>
+        <v>104.0660001426884</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513465.17778</v>
+        <v>4.513815890981984</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333333333399.1108</v>
+        <v>52.12105639461718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5189,37 +5189,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992691</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.5302269210767818</v>
+        <v>0.5000000000177411</v>
       </c>
       <c r="O5">
-        <v>0.9447552747418488</v>
+        <v>1.000000000001993</v>
       </c>
       <c r="P5">
-        <v>0.5302269209534013</v>
+        <v>0.4999999999842514</v>
       </c>
       <c r="Q5">
-        <v>62.9861960519223</v>
+        <v>89.99999999497184</v>
       </c>
       <c r="R5">
-        <v>-89.99999999846401</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S5">
-        <v>117.0138039579323</v>
+        <v>90.00000000502065</v>
       </c>
       <c r="T5">
-        <v>28867513465.17778</v>
+        <v>4.513815890981984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999997237957</v>
+        <v>0.4600513503919653</v>
       </c>
       <c r="O6">
-        <v>0.9999999999683086</v>
+        <v>1.000000000001993</v>
       </c>
       <c r="P6">
-        <v>0.9999999999740588</v>
+        <v>0.5509772745602676</v>
       </c>
       <c r="Q6">
-        <v>29.99999999015789</v>
+        <v>80.72418297166681</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136841</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S6">
-        <v>149.9999999822548</v>
+        <v>97.73474385832506</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9577658095314195</v>
+        <v>0.888417666617308</v>
       </c>
       <c r="O2">
-        <v>0.9964761462509538</v>
+        <v>0.999999999996202</v>
       </c>
       <c r="P2">
-        <v>0.9719096284686971</v>
+        <v>0.9346253859730064</v>
       </c>
       <c r="Q2">
-        <v>30.31669982299358</v>
+        <v>31.02345805161477</v>
       </c>
       <c r="R2">
-        <v>-90.07508069018778</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.1402189964033</v>
+        <v>144.5467024754364</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7946738960335693</v>
+        <v>0.4587681827456683</v>
       </c>
       <c r="O3">
-        <v>0.9833239238204809</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P3">
-        <v>0.884248443731638</v>
+        <v>0.8186035708257499</v>
       </c>
       <c r="Q3">
-        <v>31.07876275921497</v>
+        <v>36.08047684035247</v>
       </c>
       <c r="R3">
-        <v>-90.41924373727963</v>
+        <v>-89.99999999999628</v>
       </c>
       <c r="S3">
-        <v>139.60210347151</v>
+        <v>116.9319841378731</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7532601156058139</v>
+        <v>0.4341862411763744</v>
       </c>
       <c r="O4">
-        <v>0.9760205715746647</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P4">
-        <v>0.7858310070375107</v>
+        <v>0.6102254634619551</v>
       </c>
       <c r="Q4">
-        <v>37.72192694132781</v>
+        <v>70.02690230762913</v>
       </c>
       <c r="R4">
-        <v>-90.1407925013125</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S4">
-        <v>139.0387173129351</v>
+        <v>104.0660001426884</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513465.17778</v>
+        <v>4.513815890981984</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333333333399.1108</v>
+        <v>52.12105639461718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5574,37 +5574,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992691</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.5302269210767818</v>
+        <v>0.5000000000177411</v>
       </c>
       <c r="O5">
-        <v>0.9447552747418488</v>
+        <v>1.000000000001993</v>
       </c>
       <c r="P5">
-        <v>0.5302269209534013</v>
+        <v>0.4999999999842514</v>
       </c>
       <c r="Q5">
-        <v>62.9861960519223</v>
+        <v>89.99999999497184</v>
       </c>
       <c r="R5">
-        <v>-89.99999999846401</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S5">
-        <v>117.0138039579323</v>
+        <v>90.00000000502065</v>
       </c>
       <c r="T5">
-        <v>28867513465.17778</v>
+        <v>4.513815890981984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999997237957</v>
+        <v>0.4600513503919653</v>
       </c>
       <c r="O6">
-        <v>0.9999999999683086</v>
+        <v>1.000000000001993</v>
       </c>
       <c r="P6">
-        <v>0.9999999999740588</v>
+        <v>0.5509772745602676</v>
       </c>
       <c r="Q6">
-        <v>29.99999999015789</v>
+        <v>80.72418297166681</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136841</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S6">
-        <v>149.9999999822548</v>
+        <v>97.73474385832506</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9999999999980461</v>
+        <v>0.9698552922568939</v>
       </c>
       <c r="O2">
-        <v>0.999999999999859</v>
+        <v>0.9999999999985624</v>
       </c>
       <c r="P2">
-        <v>1.000000000000065</v>
+        <v>0.987450643959367</v>
       </c>
       <c r="Q2">
-        <v>29.99999999992217</v>
+        <v>29.85362188757212</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999935</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998641</v>
+        <v>148.4129753593323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999999999908952</v>
+        <v>0.8551786895019629</v>
       </c>
       <c r="O3">
-        <v>0.9999999999993319</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P3">
-        <v>1.000000000000885</v>
+        <v>0.9540623163665299</v>
       </c>
       <c r="Q3">
-        <v>29.99999999960045</v>
+        <v>28.69014273308585</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001283</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S3">
-        <v>149.9999999993679</v>
+        <v>141.8418649090393</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9999999999857128</v>
+        <v>0.8096247667889843</v>
       </c>
       <c r="O4">
-        <v>0.9999999999990409</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P4">
-        <v>0.9999999999967408</v>
+        <v>0.8880814833999696</v>
       </c>
       <c r="Q4">
-        <v>29.99999999970457</v>
+        <v>32.3650660673216</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000185</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>149.9999999991827</v>
+        <v>140.3569664116717</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.209980902411273</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.85618083088702</v>
+        <v>13.97165599442909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5959,37 +5959,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992691</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.9999999999662433</v>
+        <v>0.7812828227929544</v>
       </c>
       <c r="O5">
-        <v>0.9999999999977902</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P5">
-        <v>0.9999999999893373</v>
+        <v>0.8444687113479695</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>35.04587756095405</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>139.2386166539254</v>
       </c>
       <c r="T5">
-        <v>1.632993161790133</v>
+        <v>1.209980902411273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.7952361969551071</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8662338689117168</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>33.68158819279844</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>139.8118678584347</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9999999999980461</v>
+        <v>0.9698552922568939</v>
       </c>
       <c r="O2">
-        <v>0.999999999999859</v>
+        <v>0.9999999999985624</v>
       </c>
       <c r="P2">
-        <v>1.000000000000065</v>
+        <v>0.987450643959367</v>
       </c>
       <c r="Q2">
-        <v>29.99999999992217</v>
+        <v>29.85362188757212</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999935</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998641</v>
+        <v>148.4129753593323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999999999908952</v>
+        <v>0.8551786895019629</v>
       </c>
       <c r="O3">
-        <v>0.9999999999993319</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P3">
-        <v>1.000000000000885</v>
+        <v>0.9540623163665299</v>
       </c>
       <c r="Q3">
-        <v>29.99999999960045</v>
+        <v>28.69014273308585</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001283</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S3">
-        <v>149.9999999993679</v>
+        <v>141.8418649090393</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9999999999857128</v>
+        <v>0.8096247667889843</v>
       </c>
       <c r="O4">
-        <v>0.9999999999990409</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P4">
-        <v>0.9999999999967408</v>
+        <v>0.8880814833999696</v>
       </c>
       <c r="Q4">
-        <v>29.99999999970457</v>
+        <v>32.3650660673216</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000185</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>149.9999999991827</v>
+        <v>140.3569664116717</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.209980902411273</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.85618083088702</v>
+        <v>13.97165599442909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6344,37 +6344,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992691</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.9999999999662433</v>
+        <v>0.7812828227929544</v>
       </c>
       <c r="O5">
-        <v>0.9999999999977902</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P5">
-        <v>0.9999999999893373</v>
+        <v>0.8444687113479695</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>35.04587756095405</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>139.2386166539254</v>
       </c>
       <c r="T5">
-        <v>1.632993161790133</v>
+        <v>1.209980902411273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.7952361969551071</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8662338689117168</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>33.68158819279844</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>139.8118678584347</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.064708527693596</v>
+        <v>0.9618627255527036</v>
       </c>
       <c r="O2">
-        <v>1.024081333171092</v>
+        <v>0.9618627255242649</v>
       </c>
       <c r="P2">
-        <v>1.057104282119163</v>
+        <v>0.9618627255389799</v>
       </c>
       <c r="Q2">
-        <v>28.49381784295042</v>
+        <v>28.42920386331091</v>
       </c>
       <c r="R2">
-        <v>-90.73639486385798</v>
+        <v>-91.57079613665013</v>
       </c>
       <c r="S2">
-        <v>150.7786273658409</v>
+        <v>148.4292038647902</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060120117456</v>
+        <v>0.4199934652969327</v>
       </c>
       <c r="O3">
-        <v>0.7107893287558512</v>
+        <v>0.4199934651617762</v>
       </c>
       <c r="P3">
-        <v>0.872813701802539</v>
+        <v>0.4199934651742213</v>
       </c>
       <c r="Q3">
-        <v>20.34129284654311</v>
+        <v>5.097767356433542</v>
       </c>
       <c r="R3">
-        <v>-97.28975849946467</v>
+        <v>-114.9022326522464</v>
       </c>
       <c r="S3">
-        <v>154.1637402961132</v>
+        <v>125.0977673680542</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540958203928</v>
+        <v>0.1679973862502688</v>
       </c>
       <c r="O4">
-        <v>0.5817547040079321</v>
+        <v>0.1679973860656719</v>
       </c>
       <c r="P4">
-        <v>0.8331218487630433</v>
+        <v>0.1679973861131198</v>
       </c>
       <c r="Q4">
-        <v>19.2027816294384</v>
+        <v>5.097767373029914</v>
       </c>
       <c r="R4">
-        <v>-92.96219773862232</v>
+        <v>-114.9022326446279</v>
       </c>
       <c r="S4">
-        <v>158.9109756964735</v>
+        <v>125.0977674187161</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840978.49025</v>
+        <v>6.408463597548496</v>
       </c>
       <c r="D5">
-        <v>32377840985.45134</v>
+        <v>6.408463597915733</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104094.2049</v>
+        <v>73.99856366273083</v>
       </c>
       <c r="G5">
-        <v>373867104174.5847</v>
+        <v>73.99856366697132</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6729,37 +6729,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604313</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564871</v>
       </c>
       <c r="N5">
-        <v>0.5945778889303521</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0621119681450291</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.594577888936161</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034786040905</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000343717</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.005965196368</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840973.13361</v>
+        <v>11.09978454910766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023661984</v>
+        <v>0.08399869323511427</v>
       </c>
       <c r="O6">
-        <v>1.100000023196597</v>
+        <v>0.08399869303403766</v>
       </c>
       <c r="P6">
-        <v>1.100000023340558</v>
+        <v>0.08399869309315269</v>
       </c>
       <c r="Q6">
-        <v>29.99999997529002</v>
+        <v>5.097767401000608</v>
       </c>
       <c r="R6">
-        <v>-90.00000003004187</v>
+        <v>-114.9022326316205</v>
       </c>
       <c r="S6">
-        <v>149.9999999936098</v>
+        <v>125.0977675034625</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.064708527693596</v>
+        <v>0.9618627255527036</v>
       </c>
       <c r="O2">
-        <v>1.024081333171092</v>
+        <v>0.9618627255242649</v>
       </c>
       <c r="P2">
-        <v>1.057104282119163</v>
+        <v>0.9618627255389799</v>
       </c>
       <c r="Q2">
-        <v>28.49381784295042</v>
+        <v>28.42920386331091</v>
       </c>
       <c r="R2">
-        <v>-90.73639486385798</v>
+        <v>-91.57079613665013</v>
       </c>
       <c r="S2">
-        <v>150.7786273658409</v>
+        <v>148.4292038647902</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060120117456</v>
+        <v>0.4199934652969327</v>
       </c>
       <c r="O3">
-        <v>0.7107893287558512</v>
+        <v>0.4199934651617762</v>
       </c>
       <c r="P3">
-        <v>0.872813701802539</v>
+        <v>0.4199934651742213</v>
       </c>
       <c r="Q3">
-        <v>20.34129284654311</v>
+        <v>5.097767356433542</v>
       </c>
       <c r="R3">
-        <v>-97.28975849946467</v>
+        <v>-114.9022326522464</v>
       </c>
       <c r="S3">
-        <v>154.1637402961132</v>
+        <v>125.0977673680542</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540958203928</v>
+        <v>0.1679973862502688</v>
       </c>
       <c r="O4">
-        <v>0.5817547040079321</v>
+        <v>0.1679973860656719</v>
       </c>
       <c r="P4">
-        <v>0.8331218487630433</v>
+        <v>0.1679973861131198</v>
       </c>
       <c r="Q4">
-        <v>19.2027816294384</v>
+        <v>5.097767373029914</v>
       </c>
       <c r="R4">
-        <v>-92.96219773862232</v>
+        <v>-114.9022326446279</v>
       </c>
       <c r="S4">
-        <v>158.9109756964735</v>
+        <v>125.0977674187161</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,19 +7093,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840978.49025</v>
+        <v>6.408463597548496</v>
       </c>
       <c r="D5">
-        <v>32377840985.45134</v>
+        <v>6.408463597915733</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104094.2049</v>
+        <v>73.99856366273083</v>
       </c>
       <c r="G5">
-        <v>373867104174.5847</v>
+        <v>73.99856366697132</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7114,37 +7114,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604313</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564871</v>
       </c>
       <c r="N5">
-        <v>0.5945778889303521</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0621119681450291</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.594577888936161</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034786040905</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000343717</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.005965196368</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840973.13361</v>
+        <v>11.09978454910766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023661984</v>
+        <v>0.08399869323511427</v>
       </c>
       <c r="O6">
-        <v>1.100000023196597</v>
+        <v>0.08399869303403766</v>
       </c>
       <c r="P6">
-        <v>1.100000023340558</v>
+        <v>0.08399869309315269</v>
       </c>
       <c r="Q6">
-        <v>29.99999997529002</v>
+        <v>5.097767401000608</v>
       </c>
       <c r="R6">
-        <v>-90.00000003004187</v>
+        <v>-114.9022326316205</v>
       </c>
       <c r="S6">
-        <v>149.9999999936098</v>
+        <v>125.0977675034625</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841539</v>
+        <v>1.083139218667921</v>
       </c>
       <c r="O2">
-        <v>1.100000023839375</v>
+        <v>1.059278148953053</v>
       </c>
       <c r="P2">
-        <v>1.10000002383959</v>
+        <v>1.072307930635247</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987415</v>
+        <v>28.66105174539966</v>
       </c>
       <c r="R2">
-        <v>-90.00000000017313</v>
+        <v>-91.28334085733744</v>
       </c>
       <c r="S2">
-        <v>149.9999999999409</v>
+        <v>149.7927530229886</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023840851</v>
+        <v>1.026319339815346</v>
       </c>
       <c r="O3">
-        <v>1.100000023829779</v>
+        <v>0.9019226052886101</v>
       </c>
       <c r="P3">
-        <v>1.100000023830246</v>
+        <v>0.9562158676264627</v>
       </c>
       <c r="Q3">
-        <v>29.99999999934048</v>
+        <v>22.29958416318839</v>
       </c>
       <c r="R3">
-        <v>-90.00000000095955</v>
+        <v>-98.66237050193624</v>
       </c>
       <c r="S3">
-        <v>149.9999999996826</v>
+        <v>148.3187487787069</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023837893</v>
+        <v>0.9783482512761524</v>
       </c>
       <c r="O4">
-        <v>1.100000023822635</v>
+        <v>0.8174068168697867</v>
       </c>
       <c r="P4">
-        <v>1.10000002382589</v>
+        <v>0.9115583371919599</v>
       </c>
       <c r="Q4">
-        <v>29.99999999917684</v>
+        <v>20.80236550736364</v>
       </c>
       <c r="R4">
-        <v>-90.00000000108136</v>
+        <v>-98.9774898257956</v>
       </c>
       <c r="S4">
-        <v>149.9999999997287</v>
+        <v>149.6977460344275</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,19 +7478,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.79629251690412</v>
+        <v>1.389842862273669</v>
       </c>
       <c r="D5">
-        <v>1.79629251690412</v>
+        <v>1.271334315222708</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.74179936355809</v>
+        <v>16.04852301329966</v>
       </c>
       <c r="G5">
-        <v>20.74179936355809</v>
+        <v>14.68010418247678</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7499,37 +7499,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604313</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564871</v>
       </c>
       <c r="N5">
-        <v>1.100000023830971</v>
+        <v>0.9467699198774839</v>
       </c>
       <c r="O5">
-        <v>1.100000023796269</v>
+        <v>0.7610792363898121</v>
       </c>
       <c r="P5">
-        <v>1.100000023805567</v>
+        <v>0.8821046938247634</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>19.72041245559807</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-99.2264456857035</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>150.6942704007944</v>
       </c>
       <c r="T5">
-        <v>1.796292516904121</v>
+        <v>1.569068326504255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.9625161923336192</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.7892411664004487</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.8967976130201459</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>20.27026305687974</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-99.09752580832854</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>150.1878260752178</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841539</v>
+        <v>1.083139218667921</v>
       </c>
       <c r="O2">
-        <v>1.100000023839375</v>
+        <v>1.059278148953053</v>
       </c>
       <c r="P2">
-        <v>1.10000002383959</v>
+        <v>1.072307930635247</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987415</v>
+        <v>28.66105174539966</v>
       </c>
       <c r="R2">
-        <v>-90.00000000017313</v>
+        <v>-91.28334085733744</v>
       </c>
       <c r="S2">
-        <v>149.9999999999409</v>
+        <v>149.7927530229886</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023840851</v>
+        <v>1.026319339815346</v>
       </c>
       <c r="O3">
-        <v>1.100000023829779</v>
+        <v>0.9019226052886101</v>
       </c>
       <c r="P3">
-        <v>1.100000023830246</v>
+        <v>0.9562158676264627</v>
       </c>
       <c r="Q3">
-        <v>29.99999999934048</v>
+        <v>22.29958416318839</v>
       </c>
       <c r="R3">
-        <v>-90.00000000095955</v>
+        <v>-98.66237050193624</v>
       </c>
       <c r="S3">
-        <v>149.9999999996826</v>
+        <v>148.3187487787069</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023837893</v>
+        <v>0.9783482512761524</v>
       </c>
       <c r="O4">
-        <v>1.100000023822635</v>
+        <v>0.8174068168697867</v>
       </c>
       <c r="P4">
-        <v>1.10000002382589</v>
+        <v>0.9115583371919599</v>
       </c>
       <c r="Q4">
-        <v>29.99999999917684</v>
+        <v>20.80236550736364</v>
       </c>
       <c r="R4">
-        <v>-90.00000000108136</v>
+        <v>-98.9774898257956</v>
       </c>
       <c r="S4">
-        <v>149.9999999997287</v>
+        <v>149.6977460344275</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,19 +7863,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.79629251690412</v>
+        <v>1.389842862273669</v>
       </c>
       <c r="D5">
-        <v>1.79629251690412</v>
+        <v>1.271334315222708</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.74179936355809</v>
+        <v>16.04852301329966</v>
       </c>
       <c r="G5">
-        <v>20.74179936355809</v>
+        <v>14.68010418247678</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7884,37 +7884,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604313</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564871</v>
       </c>
       <c r="N5">
-        <v>1.100000023830971</v>
+        <v>0.9467699198774839</v>
       </c>
       <c r="O5">
-        <v>1.100000023796269</v>
+        <v>0.7610792363898121</v>
       </c>
       <c r="P5">
-        <v>1.100000023805567</v>
+        <v>0.8821046938247634</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>19.72041245559807</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-99.2264456857035</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>150.6942704007944</v>
       </c>
       <c r="T5">
-        <v>1.796292516904121</v>
+        <v>1.569068326504255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.9625161923336192</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.7892411664004487</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.8967976130201459</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>20.27026305687974</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-99.09752580832854</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>150.1878260752178</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9725969842979028</v>
+        <v>0.8804584270027439</v>
       </c>
       <c r="O2">
-        <v>0.9329299242030992</v>
+        <v>0.8804584269810509</v>
       </c>
       <c r="P2">
-        <v>0.958183670813925</v>
+        <v>0.8804584269840272</v>
       </c>
       <c r="Q2">
-        <v>28.13219420452471</v>
+        <v>26.83345461615415</v>
       </c>
       <c r="R2">
-        <v>-91.53377747952618</v>
+        <v>-93.16654538443237</v>
       </c>
       <c r="S2">
-        <v>150.3503418408907</v>
+        <v>146.8334546170761</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386626038787</v>
+        <v>0.5037062978684022</v>
       </c>
       <c r="O3">
-        <v>0.6943631325660475</v>
+        <v>0.5037062978020524</v>
       </c>
       <c r="P3">
-        <v>0.7965930094100104</v>
+        <v>0.50370629775516</v>
       </c>
       <c r="Q3">
-        <v>19.60327144784376</v>
+        <v>-1.792556277737451</v>
       </c>
       <c r="R3">
-        <v>-101.4293415372102</v>
+        <v>-121.792556288249</v>
       </c>
       <c r="S3">
-        <v>151.2800244225508</v>
+        <v>118.2074437235355</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621490201</v>
+        <v>0.2014825192544586</v>
       </c>
       <c r="O4">
-        <v>0.5433154598061516</v>
+        <v>0.2014825191336014</v>
       </c>
       <c r="P4">
-        <v>0.75709934971461</v>
+        <v>0.201482519115913</v>
       </c>
       <c r="Q4">
-        <v>18.94495363663156</v>
+        <v>-1.792556257958193</v>
       </c>
       <c r="R4">
-        <v>-94.84247770541877</v>
+        <v>-121.7925562836041</v>
       </c>
       <c r="S4">
-        <v>157.8990167159382</v>
+        <v>118.2074437589754</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,19 +8248,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400243.84056</v>
+        <v>5.212105638758383</v>
       </c>
       <c r="D5">
-        <v>29434400250.2357</v>
+        <v>5.212105639194839</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178084.3307</v>
+        <v>60.18421187163838</v>
       </c>
       <c r="G5">
-        <v>339879178158.1755</v>
+        <v>60.18421187667813</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8269,37 +8269,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.5405253417861138</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542438740891</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5405253417926081</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034787761801</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000219885</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651946641</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400243.04831</v>
+        <v>9.027631780706926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999916596</v>
+        <v>0.1007412597173992</v>
       </c>
       <c r="O6">
-        <v>0.9999999997423451</v>
+        <v>0.100741259578373</v>
       </c>
       <c r="P6">
-        <v>0.999999999736482</v>
+        <v>0.1007412595704191</v>
       </c>
       <c r="Q6">
-        <v>29.99999998239566</v>
+        <v>-1.792556224682766</v>
       </c>
       <c r="R6">
-        <v>-90.00000002623462</v>
+        <v>-121.7925562755526</v>
       </c>
       <c r="S6">
-        <v>149.9999999904441</v>
+        <v>118.2074438183517</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100000023839321</v>
+        <v>1.059278148952853</v>
       </c>
       <c r="G2">
-        <v>-1.772645958957043E-10</v>
+        <v>-1.28334085734448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100000023829501</v>
+        <v>0.9019226052870457</v>
       </c>
       <c r="G3">
-        <v>-9.665004992401786E-10</v>
+        <v>-8.662370501976005</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.10000002382227</v>
+        <v>0.8174068168680616</v>
       </c>
       <c r="G4">
-        <v>-1.086110559807603E-09</v>
+        <v>-8.977489825842483</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8474,22 +8474,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.242837188657538</v>
       </c>
       <c r="C5">
-        <v>62.22539809062631</v>
+        <v>43.05314312581844</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>1.100000023795451</v>
+        <v>0.7610792363879806</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>45.00000000014467</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023841858</v>
+        <v>0.7892411663986704</v>
       </c>
       <c r="G6">
-        <v>-2.444942376576212E-18</v>
+        <v>-9.097525808378172</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9725969842979028</v>
+        <v>0.8804584270027439</v>
       </c>
       <c r="O2">
-        <v>0.9329299242030992</v>
+        <v>0.8804584269810509</v>
       </c>
       <c r="P2">
-        <v>0.958183670813925</v>
+        <v>0.8804584269840272</v>
       </c>
       <c r="Q2">
-        <v>28.13219420452471</v>
+        <v>26.83345461615415</v>
       </c>
       <c r="R2">
-        <v>-91.53377747952618</v>
+        <v>-93.16654538443237</v>
       </c>
       <c r="S2">
-        <v>150.3503418408907</v>
+        <v>146.8334546170761</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386626038787</v>
+        <v>0.5037062978684022</v>
       </c>
       <c r="O3">
-        <v>0.6943631325660475</v>
+        <v>0.5037062978020524</v>
       </c>
       <c r="P3">
-        <v>0.7965930094100104</v>
+        <v>0.50370629775516</v>
       </c>
       <c r="Q3">
-        <v>19.60327144784376</v>
+        <v>-1.792556277737451</v>
       </c>
       <c r="R3">
-        <v>-101.4293415372102</v>
+        <v>-121.792556288249</v>
       </c>
       <c r="S3">
-        <v>151.2800244225508</v>
+        <v>118.2074437235355</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621490201</v>
+        <v>0.2014825192544586</v>
       </c>
       <c r="O4">
-        <v>0.5433154598061516</v>
+        <v>0.2014825191336014</v>
       </c>
       <c r="P4">
-        <v>0.75709934971461</v>
+        <v>0.201482519115913</v>
       </c>
       <c r="Q4">
-        <v>18.94495363663156</v>
+        <v>-1.792556257958193</v>
       </c>
       <c r="R4">
-        <v>-94.84247770541877</v>
+        <v>-121.7925562836041</v>
       </c>
       <c r="S4">
-        <v>157.8990167159382</v>
+        <v>118.2074437589754</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,19 +8784,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400243.84056</v>
+        <v>5.212105638758383</v>
       </c>
       <c r="D5">
-        <v>29434400250.2357</v>
+        <v>5.212105639194839</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178084.3307</v>
+        <v>60.18421187163838</v>
       </c>
       <c r="G5">
-        <v>339879178158.1755</v>
+        <v>60.18421187667813</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8805,37 +8805,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.5405253417861138</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542438740891</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5405253417926081</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034787761801</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000219885</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651946641</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400243.04831</v>
+        <v>9.027631780706926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999916596</v>
+        <v>0.1007412597173992</v>
       </c>
       <c r="O6">
-        <v>0.9999999997423451</v>
+        <v>0.100741259578373</v>
       </c>
       <c r="P6">
-        <v>0.999999999736482</v>
+        <v>0.1007412595704191</v>
       </c>
       <c r="Q6">
-        <v>29.99999998239566</v>
+        <v>-1.792556224682766</v>
       </c>
       <c r="R6">
-        <v>-90.00000002623462</v>
+        <v>-121.7925562755526</v>
       </c>
       <c r="S6">
-        <v>149.9999999904441</v>
+        <v>118.2074438183517</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000000114</v>
+        <v>0.9843405649673951</v>
       </c>
       <c r="O2">
-        <v>0.9999999999983011</v>
+        <v>0.9615729355894181</v>
       </c>
       <c r="P2">
-        <v>0.9999999999980949</v>
+        <v>0.9724521912288459</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987005</v>
+        <v>28.53657515969511</v>
       </c>
       <c r="R2">
-        <v>-90.00000000019871</v>
+        <v>-91.51132863889205</v>
       </c>
       <c r="S2">
-        <v>149.9999999999183</v>
+        <v>149.6747068351959</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000001116</v>
+        <v>0.9375391802455808</v>
       </c>
       <c r="O3">
-        <v>0.9999999999926794</v>
+        <v>0.8296997009410964</v>
       </c>
       <c r="P3">
-        <v>0.9999999999911265</v>
+        <v>0.8688572961474456</v>
       </c>
       <c r="Q3">
-        <v>29.99999999937845</v>
+        <v>22.30837627642724</v>
       </c>
       <c r="R3">
-        <v>-90.00000000099853</v>
+        <v>-99.17392234672847</v>
       </c>
       <c r="S3">
-        <v>149.9999999996013</v>
+        <v>147.7835014710103</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.999999999997073</v>
+        <v>0.8699546445373587</v>
       </c>
       <c r="O4">
-        <v>0.9999999999837448</v>
+        <v>0.7246674127323595</v>
       </c>
       <c r="P4">
-        <v>0.9999999999860451</v>
+        <v>0.8201110567856946</v>
       </c>
       <c r="Q4">
-        <v>29.9999999991895</v>
+        <v>21.39807920673417</v>
       </c>
       <c r="R4">
-        <v>-90.00000000109435</v>
+        <v>-97.50360857595901</v>
       </c>
       <c r="S4">
-        <v>149.9999999997016</v>
+        <v>150.7228482726652</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.63299316179139</v>
+        <v>1.191529891745418</v>
       </c>
       <c r="D5">
-        <v>1.63299316179139</v>
+        <v>1.124439110801036</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.85618083090155</v>
+        <v>13.75860207493405</v>
       </c>
       <c r="G5">
-        <v>18.85618083090155</v>
+        <v>12.98390446616643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9190,37 +9190,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.9999999999901024</v>
+        <v>0.8250369273897885</v>
       </c>
       <c r="O5">
-        <v>0.9999999999585553</v>
+        <v>0.655079355271062</v>
       </c>
       <c r="P5">
-        <v>0.9999999999670084</v>
+        <v>0.7889349581209018</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>20.70847462310719</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-96.09329345653627</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>152.8804881504156</v>
       </c>
       <c r="T5">
-        <v>1.63299316179139</v>
+        <v>1.391108155414494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8474804505269405</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6898212699575317</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8043804515477033</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>21.06241437571038</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-96.83401769911636</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>151.7807630477585</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000000114</v>
+        <v>0.9843405649673951</v>
       </c>
       <c r="O2">
-        <v>0.9999999999983011</v>
+        <v>0.9615729355894181</v>
       </c>
       <c r="P2">
-        <v>0.9999999999980949</v>
+        <v>0.9724521912288459</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987005</v>
+        <v>28.53657515969511</v>
       </c>
       <c r="R2">
-        <v>-90.00000000019871</v>
+        <v>-91.51132863889205</v>
       </c>
       <c r="S2">
-        <v>149.9999999999183</v>
+        <v>149.6747068351959</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000001116</v>
+        <v>0.9375391802455808</v>
       </c>
       <c r="O3">
-        <v>0.9999999999926794</v>
+        <v>0.8296997009410964</v>
       </c>
       <c r="P3">
-        <v>0.9999999999911265</v>
+        <v>0.8688572961474456</v>
       </c>
       <c r="Q3">
-        <v>29.99999999937845</v>
+        <v>22.30837627642724</v>
       </c>
       <c r="R3">
-        <v>-90.00000000099853</v>
+        <v>-99.17392234672847</v>
       </c>
       <c r="S3">
-        <v>149.9999999996013</v>
+        <v>147.7835014710103</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.999999999997073</v>
+        <v>0.8699546445373587</v>
       </c>
       <c r="O4">
-        <v>0.9999999999837448</v>
+        <v>0.7246674127323595</v>
       </c>
       <c r="P4">
-        <v>0.9999999999860451</v>
+        <v>0.8201110567856946</v>
       </c>
       <c r="Q4">
-        <v>29.9999999991895</v>
+        <v>21.39807920673417</v>
       </c>
       <c r="R4">
-        <v>-90.00000000109435</v>
+        <v>-97.50360857595901</v>
       </c>
       <c r="S4">
-        <v>149.9999999997016</v>
+        <v>150.7228482726652</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,19 +9554,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.63299316179139</v>
+        <v>1.191529891745418</v>
       </c>
       <c r="D5">
-        <v>1.63299316179139</v>
+        <v>1.124439110801036</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.85618083090155</v>
+        <v>13.75860207493405</v>
       </c>
       <c r="G5">
-        <v>18.85618083090155</v>
+        <v>12.98390446616643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9575,37 +9575,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.9999999999901024</v>
+        <v>0.8250369273897885</v>
       </c>
       <c r="O5">
-        <v>0.9999999999585553</v>
+        <v>0.655079355271062</v>
       </c>
       <c r="P5">
-        <v>0.9999999999670084</v>
+        <v>0.7889349581209018</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>20.70847462310719</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-96.09329345653627</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>152.8804881504156</v>
       </c>
       <c r="T5">
-        <v>1.63299316179139</v>
+        <v>1.391108155414494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8474804505269405</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6898212699575317</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8043804515477033</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>21.06241437571038</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-96.83401769911636</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>151.7807630477585</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100000023839321</v>
+        <v>1.059278148952853</v>
       </c>
       <c r="G2">
-        <v>-1.772645958957043E-10</v>
+        <v>-1.28334085734448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100000023829501</v>
+        <v>0.9019226052870457</v>
       </c>
       <c r="G3">
-        <v>-9.665004992401786E-10</v>
+        <v>-8.662370501976005</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.10000002382227</v>
+        <v>0.8174068168680616</v>
       </c>
       <c r="G4">
-        <v>-1.086110559807603E-09</v>
+        <v>-8.977489825842483</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9780,22 +9780,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.242837188657538</v>
       </c>
       <c r="C5">
-        <v>62.22539809062631</v>
+        <v>43.05314312581844</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>1.100000023795451</v>
+        <v>0.7610792363879806</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>45.00000000014467</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023841858</v>
+        <v>0.7892411663986704</v>
       </c>
       <c r="G6">
-        <v>-2.444942376576212E-18</v>
+        <v>-9.097525808378172</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9330406553689347</v>
+        <v>0.8804584269747983</v>
       </c>
       <c r="G2">
-        <v>-1.531049299443188</v>
+        <v>-3.166545384462176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.694837600389864</v>
+        <v>0.5037062977927165</v>
       </c>
       <c r="G3">
-        <v>-11.40221983455471</v>
+        <v>-31.7925562889502</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710064606</v>
+        <v>0.201482519123995</v>
       </c>
       <c r="G4">
-        <v>-4.827721973727448</v>
+        <v>-31.79255628536537</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9931,22 +9931,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513467.78561</v>
+        <v>3.009210594127294</v>
       </c>
       <c r="C5">
-        <v>1000000000287.67</v>
+        <v>104.24211279406</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.05471187337735661</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000002763498</v>
+        <v>62.37332949917566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999997343961</v>
+        <v>0.1007412595686766</v>
       </c>
       <c r="G6">
-        <v>-2.619471171289957E-08</v>
+        <v>-31.79255627908081</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9330406553689347</v>
+        <v>0.8804584269747983</v>
       </c>
       <c r="G2">
-        <v>-1.531049299443188</v>
+        <v>-3.166545384462176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.694837600389864</v>
+        <v>0.5037062977927165</v>
       </c>
       <c r="G3">
-        <v>-11.40221983455471</v>
+        <v>-31.7925562889502</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710064606</v>
+        <v>0.201482519123995</v>
       </c>
       <c r="G4">
-        <v>-4.827721973727448</v>
+        <v>-31.79255628536537</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10082,22 +10082,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513467.78561</v>
+        <v>3.009210594127294</v>
       </c>
       <c r="C5">
-        <v>1000000000287.67</v>
+        <v>104.24211279406</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.05471187337735661</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000002763498</v>
+        <v>62.37332949917566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999997343961</v>
+        <v>0.1007412595686766</v>
       </c>
       <c r="G6">
-        <v>-2.619471171289957E-08</v>
+        <v>-31.79255627908081</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999982537</v>
+        <v>0.9615729355862579</v>
       </c>
       <c r="G2">
-        <v>-2.033572542620495E-10</v>
+        <v>-1.511328638902339</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999924546</v>
+        <v>0.8296997009372349</v>
       </c>
       <c r="G3">
-        <v>-1.007720212716575E-09</v>
+        <v>-9.173922346783923</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.999999999983422</v>
+        <v>0.7246674127284862</v>
       </c>
       <c r="G4">
-        <v>-1.099850464296024E-09</v>
+        <v>-7.503608576021943</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10233,22 +10233,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.069740107624362</v>
       </c>
       <c r="C5">
-        <v>56.56854249266106</v>
+        <v>37.05688434599187</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.9999999999578115</v>
+        <v>0.6550793552671753</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>44.99999999987111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6898212699536523</v>
       </c>
       <c r="G6">
-        <v>-1.594992525143076E-18</v>
+        <v>-6.834017699181651</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999982537</v>
+        <v>0.9615729355862579</v>
       </c>
       <c r="G2">
-        <v>-2.033572542620495E-10</v>
+        <v>-1.511328638902339</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999924546</v>
+        <v>0.8296997009372349</v>
       </c>
       <c r="G3">
-        <v>-1.007720212716575E-09</v>
+        <v>-9.173922346783923</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.999999999983422</v>
+        <v>0.7246674127284862</v>
       </c>
       <c r="G4">
-        <v>-1.099850464296024E-09</v>
+        <v>-7.503608576021943</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10384,22 +10384,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.069740107624362</v>
       </c>
       <c r="C5">
-        <v>56.56854249266106</v>
+        <v>37.05688434599187</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.9999999999578115</v>
+        <v>0.6550793552671753</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>44.99999999987111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6898212699536523</v>
       </c>
       <c r="G6">
-        <v>-1.594992525143076E-18</v>
+        <v>-6.834017699181651</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538990561</v>
+        <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>1.02813441843736</v>
+        <v>0.9618627255197193</v>
       </c>
       <c r="P2">
-        <v>1.077959469417914</v>
+        <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>28.17453160839172</v>
+        <v>26.46268431694228</v>
       </c>
       <c r="R2">
-        <v>-90.69428644466072</v>
+        <v>-91.57079613676153</v>
       </c>
       <c r="S2">
-        <v>151.5326674578527</v>
+        <v>152.8993938557652</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672226601</v>
+        <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>0.7311545119290672</v>
+        <v>0.4199934651621023</v>
       </c>
       <c r="P3">
-        <v>0.9850786996037839</v>
+        <v>0.8849458407134004</v>
       </c>
       <c r="Q3">
-        <v>19.99748951274318</v>
+        <v>10.36827052971092</v>
       </c>
       <c r="R3">
-        <v>-96.70515799160647</v>
+        <v>-114.9022326535645</v>
       </c>
       <c r="S3">
-        <v>158.4629648494932</v>
+        <v>167.570584904511</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660742431</v>
+        <v>0.9909306888778326</v>
       </c>
       <c r="O4">
-        <v>0.6093826336279413</v>
+        <v>0.1679973860669872</v>
       </c>
       <c r="P4">
-        <v>0.9943261548447578</v>
+        <v>0.9204173017492231</v>
       </c>
       <c r="Q4">
-        <v>17.35880671268257</v>
+        <v>4.409620443404044</v>
       </c>
       <c r="R4">
-        <v>-92.67653586117511</v>
+        <v>-114.9022326490688</v>
       </c>
       <c r="S4">
-        <v>162.205196338886</v>
+        <v>175.2518098001975</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,19 +10682,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032812.63088</v>
+        <v>3.204231799390412</v>
       </c>
       <c r="D5">
-        <v>28040032812.63088</v>
+        <v>3.204231799390412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409849.1676</v>
+        <v>36.99928183848027</v>
       </c>
       <c r="G5">
-        <v>323778409849.1676</v>
+        <v>36.99928183848027</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10703,34 +10703,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536784</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604313</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564871</v>
       </c>
       <c r="N5">
-        <v>0.9713352289688458</v>
+        <v>0.9526279648039775</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289577751</v>
+        <v>0.9526279648057683</v>
       </c>
       <c r="Q5">
-        <v>-5.662241758910234E-10</v>
+        <v>-1.430941311343419E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999994265</v>
+        <v>-179.9999999999792</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023955133</v>
+        <v>0.9710601884679121</v>
       </c>
       <c r="O6">
-        <v>1.100000023257053</v>
+        <v>0.08399869303568247</v>
       </c>
       <c r="P6">
-        <v>1.100000023472996</v>
+        <v>0.935719017250938</v>
       </c>
       <c r="Q6">
-        <v>29.99999997956427</v>
+        <v>2.248283018886328</v>
       </c>
       <c r="R6">
-        <v>-90.00000002843602</v>
+        <v>-114.9022326412661</v>
       </c>
       <c r="S6">
-        <v>150.0000000070463</v>
+        <v>177.6667554660107</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_3_bus_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_3_bus_ward34_impedance.xlsx
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.058332742123209</v>
+        <v>1.05833274212321</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621023</v>
+        <v>0.4199934651621022</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134004</v>
+        <v>0.8849458407134011</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971092</v>
+        <v>10.36827052971093</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535645</v>
+        <v>-114.9022326535644</v>
       </c>
       <c r="S3">
         <v>167.570584904511</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9909306888778326</v>
+        <v>0.9909306888778332</v>
       </c>
       <c r="O4">
         <v>0.1679973860669872</v>
       </c>
       <c r="P4">
-        <v>0.9204173017492231</v>
+        <v>0.9204173017492241</v>
       </c>
       <c r="Q4">
-        <v>4.409620443404044</v>
+        <v>4.40962044340407</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490688</v>
+        <v>-114.9022326490686</v>
       </c>
       <c r="S4">
         <v>175.2518098001975</v>
@@ -896,49 +896,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.204231799390412</v>
+        <v>3.204231799390406</v>
       </c>
       <c r="D5">
-        <v>3.204231799390412</v>
+        <v>3.204231799390406</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848027</v>
+        <v>36.99928183848019</v>
       </c>
       <c r="G5">
-        <v>36.99928183848027</v>
+        <v>36.99928183848019</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801567</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536784</v>
+        <v>0.9743985902535451</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033553027</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604313</v>
+        <v>0.9743985902605059</v>
       </c>
       <c r="M5">
-        <v>3.291772033564871</v>
+        <v>3.291772033564883</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039775</v>
+        <v>0.952627964803978</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057683</v>
+        <v>0.9526279648057694</v>
       </c>
       <c r="Q5">
-        <v>-1.430941311343419E-11</v>
+        <v>-1.42747886187821E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679121</v>
+        <v>0.971060188467913</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568247</v>
+        <v>0.08399869303568271</v>
       </c>
       <c r="P6">
-        <v>0.935719017250938</v>
+        <v>0.9357190172509392</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886328</v>
+        <v>2.24828301888636</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412661</v>
+        <v>-114.9022326412656</v>
       </c>
       <c r="S6">
         <v>177.6667554660107</v>
@@ -1128,7 +1128,7 @@
         <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>28.13571929983947</v>
+        <v>28.13571929983946</v>
       </c>
       <c r="R2">
         <v>-91.691325962866</v>
@@ -1181,19 +1181,19 @@
         <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>0.7889914957619026</v>
+        <v>0.7889914957619022</v>
       </c>
       <c r="P3">
-        <v>0.9451006847892721</v>
+        <v>0.9451006847892723</v>
       </c>
       <c r="Q3">
-        <v>20.24709464694268</v>
+        <v>20.24709464694267</v>
       </c>
       <c r="R3">
         <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>156.0082067402618</v>
+        <v>156.0082067402619</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1240,19 +1240,19 @@
         <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>0.6610662947114375</v>
+        <v>0.6610662947114369</v>
       </c>
       <c r="P4">
-        <v>0.9321671592612577</v>
+        <v>0.932167159261258</v>
       </c>
       <c r="Q4">
-        <v>17.32147694956704</v>
+        <v>17.32147694956703</v>
       </c>
       <c r="R4">
-        <v>-103.5752691854825</v>
+        <v>-103.5752691854824</v>
       </c>
       <c r="S4">
-        <v>159.8377717076658</v>
+        <v>159.8377717076659</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,46 +1263,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.628672512805917</v>
+        <v>1.628672512805916</v>
       </c>
       <c r="D5">
-        <v>1.628672512805917</v>
+        <v>1.628672512805916</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.80629027380481</v>
+        <v>18.8062902738048</v>
       </c>
       <c r="G5">
-        <v>18.80629027380481</v>
+        <v>18.8062902738048</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801567</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536784</v>
+        <v>0.9743985902535451</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033553027</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604313</v>
+        <v>0.9743985902605059</v>
       </c>
       <c r="M5">
-        <v>3.291772033564871</v>
+        <v>3.291772033564883</v>
       </c>
       <c r="N5">
         <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>0.5758226890677859</v>
+        <v>0.5758226890677852</v>
       </c>
       <c r="P5">
-        <v>0.9259084304691394</v>
+        <v>0.9259084304691398</v>
       </c>
       <c r="Q5">
         <v>15.27863230041745</v>
@@ -1358,19 +1358,19 @@
         <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324069</v>
+        <v>0.6184394066324064</v>
       </c>
       <c r="P6">
-        <v>0.928797766054184</v>
+        <v>0.9287977660541847</v>
       </c>
       <c r="Q6">
-        <v>16.30922779350172</v>
+        <v>16.30922779350171</v>
       </c>
       <c r="R6">
         <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>161.1358439017222</v>
+        <v>161.1358439017223</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1495,7 @@
         <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>28.13571929983947</v>
+        <v>28.13571929983946</v>
       </c>
       <c r="R2">
         <v>-91.691325962866</v>
@@ -1548,19 +1548,19 @@
         <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>0.7889914957619026</v>
+        <v>0.7889914957619022</v>
       </c>
       <c r="P3">
-        <v>0.9451006847892721</v>
+        <v>0.9451006847892723</v>
       </c>
       <c r="Q3">
-        <v>20.24709464694268</v>
+        <v>20.24709464694267</v>
       </c>
       <c r="R3">
         <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>156.0082067402618</v>
+        <v>156.0082067402619</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1607,19 +1607,19 @@
         <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>0.6610662947114375</v>
+        <v>0.6610662947114369</v>
       </c>
       <c r="P4">
-        <v>0.9321671592612577</v>
+        <v>0.932167159261258</v>
       </c>
       <c r="Q4">
-        <v>17.32147694956704</v>
+        <v>17.32147694956703</v>
       </c>
       <c r="R4">
-        <v>-103.5752691854825</v>
+        <v>-103.5752691854824</v>
       </c>
       <c r="S4">
-        <v>159.8377717076658</v>
+        <v>159.8377717076659</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,46 +1630,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.628672512805917</v>
+        <v>1.628672512805916</v>
       </c>
       <c r="D5">
-        <v>1.628672512805917</v>
+        <v>1.628672512805916</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.80629027380481</v>
+        <v>18.8062902738048</v>
       </c>
       <c r="G5">
-        <v>18.80629027380481</v>
+        <v>18.8062902738048</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801567</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536784</v>
+        <v>0.9743985902535451</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033553027</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604313</v>
+        <v>0.9743985902605059</v>
       </c>
       <c r="M5">
-        <v>3.291772033564871</v>
+        <v>3.291772033564883</v>
       </c>
       <c r="N5">
         <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>0.5758226890677859</v>
+        <v>0.5758226890677852</v>
       </c>
       <c r="P5">
-        <v>0.9259084304691394</v>
+        <v>0.9259084304691398</v>
       </c>
       <c r="Q5">
         <v>15.27863230041745</v>
@@ -1725,19 +1725,19 @@
         <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324069</v>
+        <v>0.6184394066324064</v>
       </c>
       <c r="P6">
-        <v>0.928797766054184</v>
+        <v>0.9287977660541847</v>
       </c>
       <c r="Q6">
-        <v>16.30922779350172</v>
+        <v>16.30922779350171</v>
       </c>
       <c r="R6">
         <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>161.1358439017222</v>
+        <v>161.1358439017223</v>
       </c>
     </row>
   </sheetData>
@@ -1859,13 +1859,13 @@
         <v>0.8804584269842806</v>
       </c>
       <c r="P2">
-        <v>0.9495696022608427</v>
+        <v>0.9495696022608429</v>
       </c>
       <c r="Q2">
-        <v>26.27528026615309</v>
+        <v>26.2752802661531</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439109</v>
+        <v>-93.16654538439107</v>
       </c>
       <c r="S2">
         <v>152.425513590047</v>
@@ -1912,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.02139697912874</v>
+        <v>1.021396979128739</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969645</v>
+        <v>0.5037062977969643</v>
       </c>
       <c r="P3">
         <v>0.7639425556035886</v>
       </c>
       <c r="Q3">
-        <v>12.09779838981258</v>
+        <v>12.09779838981261</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883315</v>
+        <v>-121.7925562883314</v>
       </c>
       <c r="S3">
         <v>163.7271795849222</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9230804480215801</v>
+        <v>0.9230804480215793</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277488</v>
+        <v>0.2014825191277486</v>
       </c>
       <c r="P4">
         <v>0.8174473005965646</v>
       </c>
       <c r="Q4">
-        <v>5.322483588802224</v>
+        <v>5.322483588802268</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833985</v>
+        <v>-121.7925562833982</v>
       </c>
       <c r="S4">
         <v>173.987338884872</v>
@@ -1997,49 +1997,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855855</v>
       </c>
       <c r="D5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855855</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132325</v>
+        <v>30.09210594132322</v>
       </c>
       <c r="G5">
-        <v>30.09210594132325</v>
+        <v>30.09210594132322</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486821141</v>
       </c>
       <c r="J5">
-        <v>1.779351894005636</v>
+        <v>1.7793518940055</v>
       </c>
       <c r="K5">
-        <v>3.399730879266563</v>
+        <v>3.399730879266314</v>
       </c>
       <c r="L5">
-        <v>1.779351893992583</v>
+        <v>1.77935189399265</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.399730879243838</v>
       </c>
       <c r="N5">
-        <v>0.866025403788673</v>
+        <v>0.8660254037886723</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890386</v>
+        <v>0.8660254037890388</v>
       </c>
       <c r="Q5">
-        <v>1.923020835167953E-10</v>
+        <v>1.923589307429504E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579178</v>
+        <v>0.8935891429579169</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722656</v>
+        <v>0.1007412595722653</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222766</v>
+        <v>0.8405788745222768</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569049</v>
+        <v>2.74617049856911</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748669</v>
+        <v>-121.7925562748663</v>
       </c>
       <c r="S6">
         <v>177.0804994190644</v>
@@ -2226,13 +2226,13 @@
         <v>0.8804584269842806</v>
       </c>
       <c r="P2">
-        <v>0.9495696022608427</v>
+        <v>0.9495696022608429</v>
       </c>
       <c r="Q2">
-        <v>26.27528026615309</v>
+        <v>26.2752802661531</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439109</v>
+        <v>-93.16654538439107</v>
       </c>
       <c r="S2">
         <v>152.425513590047</v>
@@ -2279,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.02139697912874</v>
+        <v>1.021396979128739</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969645</v>
+        <v>0.5037062977969643</v>
       </c>
       <c r="P3">
         <v>0.7639425556035886</v>
       </c>
       <c r="Q3">
-        <v>12.09779838981258</v>
+        <v>12.09779838981261</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883315</v>
+        <v>-121.7925562883314</v>
       </c>
       <c r="S3">
         <v>163.7271795849222</v>
@@ -2338,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9230804480215801</v>
+        <v>0.9230804480215793</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277488</v>
+        <v>0.2014825191277486</v>
       </c>
       <c r="P4">
         <v>0.8174473005965646</v>
       </c>
       <c r="Q4">
-        <v>5.322483588802224</v>
+        <v>5.322483588802268</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833985</v>
+        <v>-121.7925562833982</v>
       </c>
       <c r="S4">
         <v>173.987338884872</v>
@@ -2364,49 +2364,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855855</v>
       </c>
       <c r="D5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855855</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132325</v>
+        <v>30.09210594132322</v>
       </c>
       <c r="G5">
-        <v>30.09210594132325</v>
+        <v>30.09210594132322</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486821141</v>
       </c>
       <c r="J5">
-        <v>1.779351894005636</v>
+        <v>1.7793518940055</v>
       </c>
       <c r="K5">
-        <v>3.399730879266563</v>
+        <v>3.399730879266314</v>
       </c>
       <c r="L5">
-        <v>1.779351893992583</v>
+        <v>1.77935189399265</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.399730879243838</v>
       </c>
       <c r="N5">
-        <v>0.866025403788673</v>
+        <v>0.8660254037886723</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890386</v>
+        <v>0.8660254037890388</v>
       </c>
       <c r="Q5">
-        <v>1.923020835167953E-10</v>
+        <v>1.923589307429504E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579178</v>
+        <v>0.8935891429579169</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722656</v>
+        <v>0.1007412595722653</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222766</v>
+        <v>0.8405788745222768</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569049</v>
+        <v>2.74617049856911</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748669</v>
+        <v>-121.7925562748663</v>
       </c>
       <c r="S6">
         <v>177.0804994190644</v>
@@ -2649,13 +2649,13 @@
         <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366209</v>
+        <v>0.7448705945366206</v>
       </c>
       <c r="P3">
-        <v>0.855112354021765</v>
+        <v>0.8551123540217648</v>
       </c>
       <c r="Q3">
-        <v>20.67709037248193</v>
+        <v>20.67709037248195</v>
       </c>
       <c r="R3">
         <v>-104.1311854330021</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9691149430901757</v>
+        <v>0.9691149430901753</v>
       </c>
       <c r="O4">
-        <v>0.5884255246251151</v>
+        <v>0.5884255246251148</v>
       </c>
       <c r="P4">
-        <v>0.856702122155124</v>
+        <v>0.8567021221551239</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872722</v>
+        <v>17.29967291872724</v>
       </c>
       <c r="R4">
         <v>-101.6177951673501</v>
@@ -2746,37 +2746,37 @@
         <v>15.84315441895431</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486821141</v>
       </c>
       <c r="J5">
-        <v>1.779351894005636</v>
+        <v>1.7793518940055</v>
       </c>
       <c r="K5">
-        <v>3.399730879266563</v>
+        <v>3.399730879266314</v>
       </c>
       <c r="L5">
-        <v>1.779351893992583</v>
+        <v>1.77935189399265</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.399730879243838</v>
       </c>
       <c r="N5">
-        <v>0.9353465602742624</v>
+        <v>0.9353465602742618</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357801</v>
+        <v>0.4850955530357797</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741075</v>
+        <v>0.8618501377741073</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875882</v>
+        <v>14.83811452875884</v>
       </c>
       <c r="R5">
-        <v>-99.04485975339256</v>
+        <v>-99.04485975339249</v>
       </c>
       <c r="S5">
         <v>163.8634513655829</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9520111306336771</v>
+        <v>0.9520111306336768</v>
       </c>
       <c r="O6">
-        <v>0.5366264965011802</v>
+        <v>0.5366264965011798</v>
       </c>
       <c r="P6">
         <v>0.858870657045489</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904601</v>
+        <v>16.09072026904603</v>
       </c>
       <c r="R6">
-        <v>-100.4551748721694</v>
+        <v>-100.4551748721693</v>
       </c>
       <c r="S6">
         <v>162.1084886349017</v>
@@ -3016,13 +3016,13 @@
         <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366209</v>
+        <v>0.7448705945366206</v>
       </c>
       <c r="P3">
-        <v>0.855112354021765</v>
+        <v>0.8551123540217648</v>
       </c>
       <c r="Q3">
-        <v>20.67709037248193</v>
+        <v>20.67709037248195</v>
       </c>
       <c r="R3">
         <v>-104.1311854330021</v>
@@ -3072,16 +3072,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9691149430901757</v>
+        <v>0.9691149430901753</v>
       </c>
       <c r="O4">
-        <v>0.5884255246251151</v>
+        <v>0.5884255246251148</v>
       </c>
       <c r="P4">
-        <v>0.856702122155124</v>
+        <v>0.8567021221551239</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872722</v>
+        <v>17.29967291872724</v>
       </c>
       <c r="R4">
         <v>-101.6177951673501</v>
@@ -3113,37 +3113,37 @@
         <v>15.84315441895431</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486821141</v>
       </c>
       <c r="J5">
-        <v>1.779351894005636</v>
+        <v>1.7793518940055</v>
       </c>
       <c r="K5">
-        <v>3.399730879266563</v>
+        <v>3.399730879266314</v>
       </c>
       <c r="L5">
-        <v>1.779351893992583</v>
+        <v>1.77935189399265</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.399730879243838</v>
       </c>
       <c r="N5">
-        <v>0.9353465602742624</v>
+        <v>0.9353465602742618</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357801</v>
+        <v>0.4850955530357797</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741075</v>
+        <v>0.8618501377741073</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875882</v>
+        <v>14.83811452875884</v>
       </c>
       <c r="R5">
-        <v>-99.04485975339256</v>
+        <v>-99.04485975339249</v>
       </c>
       <c r="S5">
         <v>163.8634513655829</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9520111306336771</v>
+        <v>0.9520111306336768</v>
       </c>
       <c r="O6">
-        <v>0.5366264965011802</v>
+        <v>0.5366264965011798</v>
       </c>
       <c r="P6">
         <v>0.858870657045489</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904601</v>
+        <v>16.09072026904603</v>
       </c>
       <c r="R6">
-        <v>-100.4551748721694</v>
+        <v>-100.4551748721693</v>
       </c>
       <c r="S6">
         <v>162.1084886349017</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9855289333155798</v>
+        <v>1.021450684212557</v>
       </c>
       <c r="O2">
-        <v>1.100000023847349</v>
+        <v>1.10000002384582</v>
       </c>
       <c r="P2">
-        <v>1.010694118906341</v>
+        <v>1.053488350626711</v>
       </c>
       <c r="Q2">
-        <v>32.33756670924905</v>
+        <v>30.58845646345202</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>145.4744899280122</v>
+        <v>146.5810131094239</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5160681836901987</v>
+        <v>0.6856241872419019</v>
       </c>
       <c r="O3">
-        <v>1.100000023850813</v>
+        <v>1.100000023849309</v>
       </c>
       <c r="P3">
-        <v>0.7767016301140777</v>
+        <v>0.9293228115866151</v>
       </c>
       <c r="Q3">
-        <v>50.26234521814136</v>
+        <v>32.77024829610351</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999606</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S3">
-        <v>115.1352157588075</v>
+        <v>128.3417111856515</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5062405989736879</v>
+        <v>0.5960590444605</v>
       </c>
       <c r="O4">
-        <v>1.100000023850813</v>
+        <v>1.100000023849309</v>
       </c>
       <c r="P4">
-        <v>0.6253440371463854</v>
+        <v>0.8229226070464675</v>
       </c>
       <c r="Q4">
-        <v>74.88997785745472</v>
+        <v>42.62832615942195</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S4">
-        <v>102.1824476978298</v>
+        <v>122.2034455329971</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.54989227551463</v>
+        <v>3.604553670039213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>64.08463598483593</v>
+        <v>41.62180063411186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199907</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801299</v>
       </c>
       <c r="J5">
-        <v>0.97439859016507</v>
+        <v>0.974398590165346</v>
       </c>
       <c r="K5">
-        <v>3.291772033564943</v>
+        <v>3.291772033564949</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605289</v>
+        <v>0.9743985902605001</v>
       </c>
       <c r="M5">
-        <v>3.291772033564813</v>
+        <v>3.291772033564739</v>
       </c>
       <c r="N5">
-        <v>0.5500000119538256</v>
+        <v>0.5487069543764376</v>
       </c>
       <c r="O5">
-        <v>1.100000023850813</v>
+        <v>1.100000023849309</v>
       </c>
       <c r="P5">
-        <v>0.5500000118969871</v>
+        <v>0.7584399349827793</v>
       </c>
       <c r="Q5">
-        <v>89.9999999940423</v>
+        <v>50.82778455815784</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S5">
-        <v>90.00000000595071</v>
+        <v>117.1924671467936</v>
       </c>
       <c r="T5">
-        <v>5.549892275514631</v>
+        <v>3.604553670039213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5235436402866923</v>
+        <v>0.570920849707954</v>
       </c>
       <c r="O6">
-        <v>1.100000023850813</v>
+        <v>1.100000023849309</v>
       </c>
       <c r="P6">
-        <v>0.5843678239000886</v>
+        <v>0.7899266672099559</v>
       </c>
       <c r="Q6">
-        <v>82.75981206765211</v>
+        <v>46.55818468716628</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999697</v>
       </c>
       <c r="S6">
-        <v>96.48316610499738</v>
+        <v>119.8001868669676</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9855289333155798</v>
+        <v>1.021450684212557</v>
       </c>
       <c r="O2">
-        <v>1.100000023847349</v>
+        <v>1.10000002384582</v>
       </c>
       <c r="P2">
-        <v>1.010694118906341</v>
+        <v>1.053488350626711</v>
       </c>
       <c r="Q2">
-        <v>32.33756670924905</v>
+        <v>30.58845646345202</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>145.4744899280122</v>
+        <v>146.5810131094239</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5160681836901987</v>
+        <v>0.6856241872419019</v>
       </c>
       <c r="O3">
-        <v>1.100000023850813</v>
+        <v>1.100000023849309</v>
       </c>
       <c r="P3">
-        <v>0.7767016301140777</v>
+        <v>0.9293228115866151</v>
       </c>
       <c r="Q3">
-        <v>50.26234521814136</v>
+        <v>32.77024829610351</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999606</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S3">
-        <v>115.1352157588075</v>
+        <v>128.3417111856515</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5062405989736879</v>
+        <v>0.5960590444605</v>
       </c>
       <c r="O4">
-        <v>1.100000023850813</v>
+        <v>1.100000023849309</v>
       </c>
       <c r="P4">
-        <v>0.6253440371463854</v>
+        <v>0.8229226070464675</v>
       </c>
       <c r="Q4">
-        <v>74.88997785745472</v>
+        <v>42.62832615942195</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S4">
-        <v>102.1824476978298</v>
+        <v>122.2034455329971</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.54989227551463</v>
+        <v>3.604553670039213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>64.08463598483593</v>
+        <v>41.62180063411186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199907</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801299</v>
       </c>
       <c r="J5">
-        <v>0.97439859016507</v>
+        <v>0.974398590165346</v>
       </c>
       <c r="K5">
-        <v>3.291772033564943</v>
+        <v>3.291772033564949</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605289</v>
+        <v>0.9743985902605001</v>
       </c>
       <c r="M5">
-        <v>3.291772033564813</v>
+        <v>3.291772033564739</v>
       </c>
       <c r="N5">
-        <v>0.5500000119538256</v>
+        <v>0.5487069543764376</v>
       </c>
       <c r="O5">
-        <v>1.100000023850813</v>
+        <v>1.100000023849309</v>
       </c>
       <c r="P5">
-        <v>0.5500000118969871</v>
+        <v>0.7584399349827793</v>
       </c>
       <c r="Q5">
-        <v>89.9999999940423</v>
+        <v>50.82778455815784</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S5">
-        <v>90.00000000595071</v>
+        <v>117.1924671467936</v>
       </c>
       <c r="T5">
-        <v>5.549892275514631</v>
+        <v>3.604553670039213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5235436402866923</v>
+        <v>0.570920849707954</v>
       </c>
       <c r="O6">
-        <v>1.100000023850813</v>
+        <v>1.100000023849309</v>
       </c>
       <c r="P6">
-        <v>0.5843678239000886</v>
+        <v>0.7899266672099559</v>
       </c>
       <c r="Q6">
-        <v>82.75981206765211</v>
+        <v>46.55818468716628</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999697</v>
       </c>
       <c r="S6">
-        <v>96.48316610499738</v>
+        <v>119.8001868669676</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.069480738650142</v>
+        <v>1.073425511811698</v>
       </c>
       <c r="O2">
-        <v>1.100000023843465</v>
+        <v>1.100000023843265</v>
       </c>
       <c r="P2">
-        <v>1.086199563901171</v>
+        <v>1.088458104931583</v>
       </c>
       <c r="Q2">
-        <v>29.93059260124622</v>
+        <v>29.90852261272731</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5714693547407</v>
+        <v>148.7432761158446</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9404140809722226</v>
+        <v>0.961232288515069</v>
       </c>
       <c r="O3">
-        <v>1.100000023845168</v>
+        <v>1.100000023844788</v>
       </c>
       <c r="P3">
-        <v>1.043645148716251</v>
+        <v>1.05261020120509</v>
       </c>
       <c r="Q3">
-        <v>29.06827467781987</v>
+        <v>29.02314475520339</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S3">
-        <v>141.9605338400084</v>
+        <v>142.9884697417534</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8947483932554361</v>
+        <v>0.9207640487627224</v>
       </c>
       <c r="O4">
-        <v>1.100000023845168</v>
+        <v>1.100000023844788</v>
       </c>
       <c r="P4">
-        <v>0.9992901481674378</v>
+        <v>1.013996343013164</v>
       </c>
       <c r="Q4">
-        <v>30.93784573119521</v>
+        <v>30.54948644446683</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999642</v>
+        <v>-89.9999999999966</v>
       </c>
       <c r="S4">
-        <v>140.1740634955099</v>
+        <v>141.4447935030925</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.388525286637515</v>
+        <v>1.210503790590801</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.03330896033543</v>
+        <v>13.97769378705323</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199907</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801299</v>
       </c>
       <c r="J5">
-        <v>0.97439859016507</v>
+        <v>0.974398590165346</v>
       </c>
       <c r="K5">
-        <v>3.291772033564943</v>
+        <v>3.291772033564949</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605289</v>
+        <v>0.9743985902605001</v>
       </c>
       <c r="M5">
-        <v>3.291772033564813</v>
+        <v>3.291772033564739</v>
       </c>
       <c r="N5">
-        <v>0.8648802219738844</v>
+        <v>0.8941755314664371</v>
       </c>
       <c r="O5">
-        <v>1.100000023845168</v>
+        <v>1.100000023844788</v>
       </c>
       <c r="P5">
-        <v>0.9703007874836257</v>
+        <v>0.9886891907304645</v>
       </c>
       <c r="Q5">
-        <v>32.29296429119218</v>
+        <v>31.64329442408218</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999966</v>
       </c>
       <c r="S5">
-        <v>138.8931587552372</v>
+        <v>140.3492070030412</v>
       </c>
       <c r="T5">
-        <v>1.388525286637515</v>
+        <v>1.210503790590801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8797528069046628</v>
+        <v>0.9074284584814055</v>
       </c>
       <c r="O6">
-        <v>1.100000023845168</v>
+        <v>1.100000023844788</v>
       </c>
       <c r="P6">
-        <v>0.9847339578089791</v>
+        <v>1.001297008748946</v>
       </c>
       <c r="Q6">
-        <v>31.60390349352726</v>
+        <v>31.0883781523546</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999663</v>
       </c>
       <c r="S6">
-        <v>139.5430379956034</v>
+        <v>140.9039227127024</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.069480738650142</v>
+        <v>1.073425511811698</v>
       </c>
       <c r="O2">
-        <v>1.100000023843465</v>
+        <v>1.100000023843265</v>
       </c>
       <c r="P2">
-        <v>1.086199563901171</v>
+        <v>1.088458104931583</v>
       </c>
       <c r="Q2">
-        <v>29.93059260124622</v>
+        <v>29.90852261272731</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5714693547407</v>
+        <v>148.7432761158446</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9404140809722226</v>
+        <v>0.961232288515069</v>
       </c>
       <c r="O3">
-        <v>1.100000023845168</v>
+        <v>1.100000023844788</v>
       </c>
       <c r="P3">
-        <v>1.043645148716251</v>
+        <v>1.05261020120509</v>
       </c>
       <c r="Q3">
-        <v>29.06827467781987</v>
+        <v>29.02314475520339</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S3">
-        <v>141.9605338400084</v>
+        <v>142.9884697417534</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8947483932554361</v>
+        <v>0.9207640487627224</v>
       </c>
       <c r="O4">
-        <v>1.100000023845168</v>
+        <v>1.100000023844788</v>
       </c>
       <c r="P4">
-        <v>0.9992901481674378</v>
+        <v>1.013996343013164</v>
       </c>
       <c r="Q4">
-        <v>30.93784573119521</v>
+        <v>30.54948644446683</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999642</v>
+        <v>-89.9999999999966</v>
       </c>
       <c r="S4">
-        <v>140.1740634955099</v>
+        <v>141.4447935030925</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.388525286637515</v>
+        <v>1.210503790590801</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.03330896033543</v>
+        <v>13.97769378705323</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199907</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801299</v>
       </c>
       <c r="J5">
-        <v>0.97439859016507</v>
+        <v>0.974398590165346</v>
       </c>
       <c r="K5">
-        <v>3.291772033564943</v>
+        <v>3.291772033564949</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605289</v>
+        <v>0.9743985902605001</v>
       </c>
       <c r="M5">
-        <v>3.291772033564813</v>
+        <v>3.291772033564739</v>
       </c>
       <c r="N5">
-        <v>0.8648802219738844</v>
+        <v>0.8941755314664371</v>
       </c>
       <c r="O5">
-        <v>1.100000023845168</v>
+        <v>1.100000023844788</v>
       </c>
       <c r="P5">
-        <v>0.9703007874836257</v>
+        <v>0.9886891907304645</v>
       </c>
       <c r="Q5">
-        <v>32.29296429119218</v>
+        <v>31.64329442408218</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999966</v>
       </c>
       <c r="S5">
-        <v>138.8931587552372</v>
+        <v>140.3492070030412</v>
       </c>
       <c r="T5">
-        <v>1.388525286637515</v>
+        <v>1.210503790590801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8797528069046628</v>
+        <v>0.9074284584814055</v>
       </c>
       <c r="O6">
-        <v>1.100000023845168</v>
+        <v>1.100000023844788</v>
       </c>
       <c r="P6">
-        <v>0.9847339578089791</v>
+        <v>1.001297008748946</v>
       </c>
       <c r="Q6">
-        <v>31.60390349352726</v>
+        <v>31.0883781523546</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999663</v>
       </c>
       <c r="S6">
-        <v>139.5430379956034</v>
+        <v>140.9039227127024</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.888417666617308</v>
+        <v>0.9270268917271186</v>
       </c>
       <c r="O2">
-        <v>0.999999999996202</v>
+        <v>0.9999999999968737</v>
       </c>
       <c r="P2">
-        <v>0.9346253859730064</v>
+        <v>0.9657678908047341</v>
       </c>
       <c r="Q2">
-        <v>31.02345805161477</v>
+        <v>29.98730981468957</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>144.5467024754364</v>
+        <v>146.2419734066533</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4587681827456683</v>
+        <v>0.6477509839602569</v>
       </c>
       <c r="O3">
-        <v>1.000000000001992</v>
+        <v>1.000000000000618</v>
       </c>
       <c r="P3">
-        <v>0.8186035708257499</v>
+        <v>0.8975536968361753</v>
       </c>
       <c r="Q3">
-        <v>36.08047684035247</v>
+        <v>28.28977814523618</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999686</v>
       </c>
       <c r="S3">
-        <v>116.9319841378731</v>
+        <v>129.456208249469</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4341862411763744</v>
+        <v>0.5592336037638468</v>
       </c>
       <c r="O4">
-        <v>1.000000000001992</v>
+        <v>1.000000000000619</v>
       </c>
       <c r="P4">
-        <v>0.6102254634619551</v>
+        <v>0.7506840324252043</v>
       </c>
       <c r="Q4">
-        <v>70.02690230762913</v>
+        <v>42.05620963546229</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999693</v>
       </c>
       <c r="S4">
-        <v>104.0660001426884</v>
+        <v>123.581862987491</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.513815890981984</v>
+        <v>2.918936897167371</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>52.12105639461718</v>
+        <v>33.70498006654225</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631591</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486820861</v>
       </c>
       <c r="J5">
-        <v>1.779351894034215</v>
+        <v>1.779351894034497</v>
       </c>
       <c r="K5">
-        <v>3.399730879243905</v>
+        <v>3.399730879243912</v>
       </c>
       <c r="L5">
-        <v>1.779351893992691</v>
+        <v>1.779351893992678</v>
       </c>
       <c r="M5">
-        <v>3.39973087924376</v>
+        <v>3.3997308792437</v>
       </c>
       <c r="N5">
-        <v>0.5000000000177411</v>
+        <v>0.5228252375433684</v>
       </c>
       <c r="O5">
-        <v>1.000000000001993</v>
+        <v>1.000000000000619</v>
       </c>
       <c r="P5">
-        <v>0.4999999999842514</v>
+        <v>0.6587659040290277</v>
       </c>
       <c r="Q5">
-        <v>89.99999999497184</v>
+        <v>53.39147585315045</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999693</v>
       </c>
       <c r="S5">
-        <v>90.00000000502065</v>
+        <v>118.2477286892427</v>
       </c>
       <c r="T5">
-        <v>4.513815890981984</v>
+        <v>2.91893689716737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4600513503919653</v>
+        <v>0.5383876096111458</v>
       </c>
       <c r="O6">
-        <v>1.000000000001993</v>
+        <v>1.000000000000619</v>
       </c>
       <c r="P6">
-        <v>0.5509772745602676</v>
+        <v>0.7039648487680401</v>
       </c>
       <c r="Q6">
-        <v>80.72418297166681</v>
+        <v>47.53251842099858</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999703</v>
       </c>
       <c r="S6">
-        <v>97.73474385832506</v>
+        <v>121.088855434715</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.888417666617308</v>
+        <v>0.9270268917271186</v>
       </c>
       <c r="O2">
-        <v>0.999999999996202</v>
+        <v>0.9999999999968737</v>
       </c>
       <c r="P2">
-        <v>0.9346253859730064</v>
+        <v>0.9657678908047341</v>
       </c>
       <c r="Q2">
-        <v>31.02345805161477</v>
+        <v>29.98730981468957</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>144.5467024754364</v>
+        <v>146.2419734066533</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4587681827456683</v>
+        <v>0.6477509839602569</v>
       </c>
       <c r="O3">
-        <v>1.000000000001992</v>
+        <v>1.000000000000618</v>
       </c>
       <c r="P3">
-        <v>0.8186035708257499</v>
+        <v>0.8975536968361753</v>
       </c>
       <c r="Q3">
-        <v>36.08047684035247</v>
+        <v>28.28977814523618</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999686</v>
       </c>
       <c r="S3">
-        <v>116.9319841378731</v>
+        <v>129.456208249469</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4341862411763744</v>
+        <v>0.5592336037638468</v>
       </c>
       <c r="O4">
-        <v>1.000000000001992</v>
+        <v>1.000000000000619</v>
       </c>
       <c r="P4">
-        <v>0.6102254634619551</v>
+        <v>0.7506840324252043</v>
       </c>
       <c r="Q4">
-        <v>70.02690230762913</v>
+        <v>42.05620963546229</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999693</v>
       </c>
       <c r="S4">
-        <v>104.0660001426884</v>
+        <v>123.581862987491</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.513815890981984</v>
+        <v>2.918936897167371</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>52.12105639461718</v>
+        <v>33.70498006654225</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631591</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486820861</v>
       </c>
       <c r="J5">
-        <v>1.779351894034215</v>
+        <v>1.779351894034497</v>
       </c>
       <c r="K5">
-        <v>3.399730879243905</v>
+        <v>3.399730879243912</v>
       </c>
       <c r="L5">
-        <v>1.779351893992691</v>
+        <v>1.779351893992678</v>
       </c>
       <c r="M5">
-        <v>3.39973087924376</v>
+        <v>3.3997308792437</v>
       </c>
       <c r="N5">
-        <v>0.5000000000177411</v>
+        <v>0.5228252375433684</v>
       </c>
       <c r="O5">
-        <v>1.000000000001993</v>
+        <v>1.000000000000619</v>
       </c>
       <c r="P5">
-        <v>0.4999999999842514</v>
+        <v>0.6587659040290277</v>
       </c>
       <c r="Q5">
-        <v>89.99999999497184</v>
+        <v>53.39147585315045</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999693</v>
       </c>
       <c r="S5">
-        <v>90.00000000502065</v>
+        <v>118.2477286892427</v>
       </c>
       <c r="T5">
-        <v>4.513815890981984</v>
+        <v>2.91893689716737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4600513503919653</v>
+        <v>0.5383876096111458</v>
       </c>
       <c r="O6">
-        <v>1.000000000001993</v>
+        <v>1.000000000000619</v>
       </c>
       <c r="P6">
-        <v>0.5509772745602676</v>
+        <v>0.7039648487680401</v>
       </c>
       <c r="Q6">
-        <v>80.72418297166681</v>
+        <v>47.53251842099858</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999703</v>
       </c>
       <c r="S6">
-        <v>97.73474385832506</v>
+        <v>121.088855434715</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9698552922568939</v>
+        <v>0.9738929156981732</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985624</v>
+        <v>0.9999999999987178</v>
       </c>
       <c r="P2">
-        <v>0.987450643959367</v>
+        <v>0.9896188716062821</v>
       </c>
       <c r="Q2">
-        <v>29.85362188757212</v>
+        <v>29.83807718665424</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4129753593323</v>
+        <v>148.6109820763519</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8551786895019629</v>
+        <v>0.87475506995039</v>
       </c>
       <c r="O3">
-        <v>1.000000000000097</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P3">
-        <v>0.9540623163665299</v>
+        <v>0.9618038695266228</v>
       </c>
       <c r="Q3">
-        <v>28.69014273308585</v>
+        <v>28.69902442928882</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>141.8418649090393</v>
+        <v>142.9173746183166</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8096247667889843</v>
+        <v>0.8339182882203034</v>
       </c>
       <c r="O4">
-        <v>1.000000000000097</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P4">
-        <v>0.8880814833999696</v>
+        <v>0.9045870611229827</v>
       </c>
       <c r="Q4">
-        <v>32.3650660673216</v>
+        <v>31.72992919475287</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999659</v>
       </c>
       <c r="S4">
-        <v>140.3569664116717</v>
+        <v>141.6366209958989</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.209980902411273</v>
+        <v>1.050225230109735</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.97165599442909</v>
+        <v>12.12695638627185</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631591</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486820861</v>
       </c>
       <c r="J5">
-        <v>1.779351894034215</v>
+        <v>1.779351894034497</v>
       </c>
       <c r="K5">
-        <v>3.399730879243905</v>
+        <v>3.399730879243912</v>
       </c>
       <c r="L5">
-        <v>1.779351893992691</v>
+        <v>1.779351893992678</v>
       </c>
       <c r="M5">
-        <v>3.39973087924376</v>
+        <v>3.3997308792437</v>
       </c>
       <c r="N5">
-        <v>0.7812828227929544</v>
+        <v>0.8080980317036517</v>
       </c>
       <c r="O5">
-        <v>1.000000000000097</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P5">
-        <v>0.8444687113479695</v>
+        <v>0.8667212129831292</v>
       </c>
       <c r="Q5">
-        <v>35.04587756095405</v>
+        <v>33.9167154007441</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999659</v>
       </c>
       <c r="S5">
-        <v>139.2386166539254</v>
+        <v>140.689151899967</v>
       </c>
       <c r="T5">
-        <v>1.209980902411273</v>
+        <v>1.050225230109735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7952361969551071</v>
+        <v>0.8208587070864781</v>
       </c>
       <c r="O6">
-        <v>1.000000000000097</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P6">
-        <v>0.8662338689117168</v>
+        <v>0.8856238778130034</v>
       </c>
       <c r="Q6">
-        <v>33.68158819279844</v>
+        <v>32.80612690408284</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999663</v>
       </c>
       <c r="S6">
-        <v>139.8118678584347</v>
+        <v>141.1730138603388</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9698552922568939</v>
+        <v>0.9738929156981732</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985624</v>
+        <v>0.9999999999987178</v>
       </c>
       <c r="P2">
-        <v>0.987450643959367</v>
+        <v>0.9896188716062821</v>
       </c>
       <c r="Q2">
-        <v>29.85362188757212</v>
+        <v>29.83807718665424</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4129753593323</v>
+        <v>148.6109820763519</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8551786895019629</v>
+        <v>0.87475506995039</v>
       </c>
       <c r="O3">
-        <v>1.000000000000097</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P3">
-        <v>0.9540623163665299</v>
+        <v>0.9618038695266228</v>
       </c>
       <c r="Q3">
-        <v>28.69014273308585</v>
+        <v>28.69902442928882</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>141.8418649090393</v>
+        <v>142.9173746183166</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8096247667889843</v>
+        <v>0.8339182882203034</v>
       </c>
       <c r="O4">
-        <v>1.000000000000097</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P4">
-        <v>0.8880814833999696</v>
+        <v>0.9045870611229827</v>
       </c>
       <c r="Q4">
-        <v>32.3650660673216</v>
+        <v>31.72992919475287</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999659</v>
       </c>
       <c r="S4">
-        <v>140.3569664116717</v>
+        <v>141.6366209958989</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.209980902411273</v>
+        <v>1.050225230109735</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.97165599442909</v>
+        <v>12.12695638627185</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631591</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486820861</v>
       </c>
       <c r="J5">
-        <v>1.779351894034215</v>
+        <v>1.779351894034497</v>
       </c>
       <c r="K5">
-        <v>3.399730879243905</v>
+        <v>3.399730879243912</v>
       </c>
       <c r="L5">
-        <v>1.779351893992691</v>
+        <v>1.779351893992678</v>
       </c>
       <c r="M5">
-        <v>3.39973087924376</v>
+        <v>3.3997308792437</v>
       </c>
       <c r="N5">
-        <v>0.7812828227929544</v>
+        <v>0.8080980317036517</v>
       </c>
       <c r="O5">
-        <v>1.000000000000097</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P5">
-        <v>0.8444687113479695</v>
+        <v>0.8667212129831292</v>
       </c>
       <c r="Q5">
-        <v>35.04587756095405</v>
+        <v>33.9167154007441</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999659</v>
       </c>
       <c r="S5">
-        <v>139.2386166539254</v>
+        <v>140.689151899967</v>
       </c>
       <c r="T5">
-        <v>1.209980902411273</v>
+        <v>1.050225230109735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7952361969551071</v>
+        <v>0.8208587070864781</v>
       </c>
       <c r="O6">
-        <v>1.000000000000097</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P6">
-        <v>0.8662338689117168</v>
+        <v>0.8856238778130034</v>
       </c>
       <c r="Q6">
-        <v>33.68158819279844</v>
+        <v>32.80612690408284</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999663</v>
       </c>
       <c r="S6">
-        <v>139.8118678584347</v>
+        <v>141.1730138603388</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9618627255527036</v>
+        <v>1.041835286822686</v>
       </c>
       <c r="O2">
-        <v>0.9618627255242649</v>
+        <v>0.9618627255212148</v>
       </c>
       <c r="P2">
-        <v>0.9618627255389799</v>
+        <v>1.037250737265632</v>
       </c>
       <c r="Q2">
-        <v>28.42920386331091</v>
+        <v>26.22846419174617</v>
       </c>
       <c r="R2">
-        <v>-91.57079613665013</v>
+        <v>-91.57079613673579</v>
       </c>
       <c r="S2">
-        <v>148.4292038647902</v>
+        <v>151.11416120769</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4199934652969327</v>
+        <v>0.8860369887082231</v>
       </c>
       <c r="O3">
-        <v>0.4199934651617762</v>
+        <v>0.4199934651626951</v>
       </c>
       <c r="P3">
-        <v>0.4199934651742213</v>
+        <v>0.7693293049960673</v>
       </c>
       <c r="Q3">
-        <v>5.097767356433542</v>
+        <v>4.872122279937787</v>
       </c>
       <c r="R3">
-        <v>-114.9022326522464</v>
+        <v>-114.9022326532363</v>
       </c>
       <c r="S3">
-        <v>125.0977673680542</v>
+        <v>156.5874094905847</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1679973862502688</v>
+        <v>0.7640912872276442</v>
       </c>
       <c r="O4">
-        <v>0.1679973860656719</v>
+        <v>0.1679973860669066</v>
       </c>
       <c r="P4">
-        <v>0.1679973861131198</v>
+        <v>0.7176563879245298</v>
       </c>
       <c r="Q4">
-        <v>5.097767373029914</v>
+        <v>-2.696301789148619</v>
       </c>
       <c r="R4">
-        <v>-114.9022326446279</v>
+        <v>-114.9022326479621</v>
       </c>
       <c r="S4">
-        <v>125.0977674187161</v>
+        <v>164.7866886953436</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.408463597548496</v>
+        <v>4.152832558954739</v>
       </c>
       <c r="D5">
-        <v>6.408463597915733</v>
+        <v>3.004441090618913</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>73.99856366273083</v>
+        <v>47.95277991623922</v>
       </c>
       <c r="G5">
-        <v>73.99856366697132</v>
+        <v>34.69229744866405</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801567</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536784</v>
+        <v>0.9743985902535451</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033553027</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604313</v>
+        <v>0.9743985902605059</v>
       </c>
       <c r="M5">
-        <v>3.291772033564871</v>
+        <v>3.291772033564883</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6923253666844348</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6923253666899334</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-9.148540131519272</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>170.8514598684914</v>
       </c>
       <c r="T5">
-        <v>11.09978454910766</v>
+        <v>3.387766721943758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08399869323511427</v>
+        <v>0.7270570764788067</v>
       </c>
       <c r="O6">
-        <v>0.08399869303403766</v>
+        <v>0.08399869303537713</v>
       </c>
       <c r="P6">
-        <v>0.08399869309315269</v>
+        <v>0.7040040630576286</v>
       </c>
       <c r="Q6">
-        <v>5.097767401000608</v>
+        <v>-5.763283941568813</v>
       </c>
       <c r="R6">
-        <v>-114.9022326316205</v>
+        <v>-114.9022326388615</v>
       </c>
       <c r="S6">
-        <v>125.0977675034625</v>
+        <v>167.7645450651481</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9618627255527036</v>
+        <v>1.041835286822686</v>
       </c>
       <c r="O2">
-        <v>0.9618627255242649</v>
+        <v>0.9618627255212148</v>
       </c>
       <c r="P2">
-        <v>0.9618627255389799</v>
+        <v>1.037250737265632</v>
       </c>
       <c r="Q2">
-        <v>28.42920386331091</v>
+        <v>26.22846419174617</v>
       </c>
       <c r="R2">
-        <v>-91.57079613665013</v>
+        <v>-91.57079613673579</v>
       </c>
       <c r="S2">
-        <v>148.4292038647902</v>
+        <v>151.11416120769</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4199934652969327</v>
+        <v>0.8860369887082231</v>
       </c>
       <c r="O3">
-        <v>0.4199934651617762</v>
+        <v>0.4199934651626951</v>
       </c>
       <c r="P3">
-        <v>0.4199934651742213</v>
+        <v>0.7693293049960673</v>
       </c>
       <c r="Q3">
-        <v>5.097767356433542</v>
+        <v>4.872122279937787</v>
       </c>
       <c r="R3">
-        <v>-114.9022326522464</v>
+        <v>-114.9022326532363</v>
       </c>
       <c r="S3">
-        <v>125.0977673680542</v>
+        <v>156.5874094905847</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1679973862502688</v>
+        <v>0.7640912872276442</v>
       </c>
       <c r="O4">
-        <v>0.1679973860656719</v>
+        <v>0.1679973860669066</v>
       </c>
       <c r="P4">
-        <v>0.1679973861131198</v>
+        <v>0.7176563879245298</v>
       </c>
       <c r="Q4">
-        <v>5.097767373029914</v>
+        <v>-2.696301789148619</v>
       </c>
       <c r="R4">
-        <v>-114.9022326446279</v>
+        <v>-114.9022326479621</v>
       </c>
       <c r="S4">
-        <v>125.0977674187161</v>
+        <v>164.7866886953436</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.408463597548496</v>
+        <v>4.152832558954739</v>
       </c>
       <c r="D5">
-        <v>6.408463597915733</v>
+        <v>3.004441090618913</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>73.99856366273083</v>
+        <v>47.95277991623922</v>
       </c>
       <c r="G5">
-        <v>73.99856366697132</v>
+        <v>34.69229744866405</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801567</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536784</v>
+        <v>0.9743985902535451</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033553027</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604313</v>
+        <v>0.9743985902605059</v>
       </c>
       <c r="M5">
-        <v>3.291772033564871</v>
+        <v>3.291772033564883</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6923253666844348</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6923253666899334</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-9.148540131519272</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>170.8514598684914</v>
       </c>
       <c r="T5">
-        <v>11.09978454910766</v>
+        <v>3.387766721943758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08399869323511427</v>
+        <v>0.7270570764788067</v>
       </c>
       <c r="O6">
-        <v>0.08399869303403766</v>
+        <v>0.08399869303537713</v>
       </c>
       <c r="P6">
-        <v>0.08399869309315269</v>
+        <v>0.7040040630576286</v>
       </c>
       <c r="Q6">
-        <v>5.097767401000608</v>
+        <v>-5.763283941568813</v>
       </c>
       <c r="R6">
-        <v>-114.9022326316205</v>
+        <v>-114.9022326388615</v>
       </c>
       <c r="S6">
-        <v>125.0977675034625</v>
+        <v>167.7645450651481</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.083139218667921</v>
+        <v>1.087489575450405</v>
       </c>
       <c r="O2">
-        <v>1.059278148953053</v>
+        <v>1.059278148952847</v>
       </c>
       <c r="P2">
-        <v>1.072307930635247</v>
+        <v>1.07445290559714</v>
       </c>
       <c r="Q2">
-        <v>28.66105174539966</v>
+        <v>28.66787607293267</v>
       </c>
       <c r="R2">
-        <v>-91.28334085733744</v>
+        <v>-91.28334085733819</v>
       </c>
       <c r="S2">
-        <v>149.7927530229886</v>
+        <v>149.9948990140566</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.026319339815346</v>
+        <v>1.048759394443203</v>
       </c>
       <c r="O3">
-        <v>0.9019226052886101</v>
+        <v>0.9019226052882722</v>
       </c>
       <c r="P3">
-        <v>0.9562158676264627</v>
+        <v>0.9660676868281984</v>
       </c>
       <c r="Q3">
-        <v>22.29958416318839</v>
+        <v>22.54012871077605</v>
       </c>
       <c r="R3">
-        <v>-98.66237050193624</v>
+        <v>-98.66237050194206</v>
       </c>
       <c r="S3">
-        <v>148.3187487787069</v>
+        <v>149.5484039077761</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9783482512761524</v>
+        <v>1.007642485767412</v>
       </c>
       <c r="O4">
-        <v>0.8174068168697867</v>
+        <v>0.8174068168694751</v>
       </c>
       <c r="P4">
-        <v>0.9115583371919599</v>
+        <v>0.9290392376011418</v>
       </c>
       <c r="Q4">
-        <v>20.80236550736364</v>
+        <v>20.89124812724409</v>
       </c>
       <c r="R4">
-        <v>-98.9774898257956</v>
+        <v>-98.97748982580443</v>
       </c>
       <c r="S4">
-        <v>149.6977460344275</v>
+        <v>151.1644730766122</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.389842862273669</v>
+        <v>1.28815414435865</v>
       </c>
       <c r="D5">
-        <v>1.271334315222708</v>
+        <v>1.1612410220713</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.04852301329966</v>
+        <v>14.87432284006398</v>
       </c>
       <c r="G5">
-        <v>14.68010418247678</v>
+        <v>13.40885633373802</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801567</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536784</v>
+        <v>0.9743985902535451</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033553027</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604313</v>
+        <v>0.9743985902605059</v>
       </c>
       <c r="M5">
-        <v>3.291772033564871</v>
+        <v>3.291772033564883</v>
       </c>
       <c r="N5">
-        <v>0.9467699198774839</v>
+        <v>0.9807270910839859</v>
       </c>
       <c r="O5">
-        <v>0.7610792363898121</v>
+        <v>0.7610792363895186</v>
       </c>
       <c r="P5">
-        <v>0.8821046938247634</v>
+        <v>0.9047921065884397</v>
       </c>
       <c r="Q5">
-        <v>19.72041245559807</v>
+        <v>19.71581980101482</v>
       </c>
       <c r="R5">
-        <v>-99.2264456857035</v>
+        <v>-99.22644568571467</v>
       </c>
       <c r="S5">
-        <v>150.6942704007944</v>
+        <v>152.3147410448943</v>
       </c>
       <c r="T5">
-        <v>1.569068326504255</v>
+        <v>1.175461947248358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9625161923336192</v>
+        <v>0.9941324957602696</v>
       </c>
       <c r="O6">
-        <v>0.7892411664004487</v>
+        <v>0.7892411664001461</v>
       </c>
       <c r="P6">
-        <v>0.8967976130201459</v>
+        <v>0.9168694858555421</v>
       </c>
       <c r="Q6">
-        <v>20.27026305687974</v>
+        <v>20.31148978572212</v>
       </c>
       <c r="R6">
-        <v>-99.09752580832854</v>
+        <v>-99.09752580833846</v>
       </c>
       <c r="S6">
-        <v>150.1878260752178</v>
+        <v>151.7320023171192</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.083139218667921</v>
+        <v>1.087489575450405</v>
       </c>
       <c r="O2">
-        <v>1.059278148953053</v>
+        <v>1.059278148952847</v>
       </c>
       <c r="P2">
-        <v>1.072307930635247</v>
+        <v>1.07445290559714</v>
       </c>
       <c r="Q2">
-        <v>28.66105174539966</v>
+        <v>28.66787607293267</v>
       </c>
       <c r="R2">
-        <v>-91.28334085733744</v>
+        <v>-91.28334085733819</v>
       </c>
       <c r="S2">
-        <v>149.7927530229886</v>
+        <v>149.9948990140566</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.026319339815346</v>
+        <v>1.048759394443203</v>
       </c>
       <c r="O3">
-        <v>0.9019226052886101</v>
+        <v>0.9019226052882722</v>
       </c>
       <c r="P3">
-        <v>0.9562158676264627</v>
+        <v>0.9660676868281984</v>
       </c>
       <c r="Q3">
-        <v>22.29958416318839</v>
+        <v>22.54012871077605</v>
       </c>
       <c r="R3">
-        <v>-98.66237050193624</v>
+        <v>-98.66237050194206</v>
       </c>
       <c r="S3">
-        <v>148.3187487787069</v>
+        <v>149.5484039077761</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9783482512761524</v>
+        <v>1.007642485767412</v>
       </c>
       <c r="O4">
-        <v>0.8174068168697867</v>
+        <v>0.8174068168694751</v>
       </c>
       <c r="P4">
-        <v>0.9115583371919599</v>
+        <v>0.9290392376011418</v>
       </c>
       <c r="Q4">
-        <v>20.80236550736364</v>
+        <v>20.89124812724409</v>
       </c>
       <c r="R4">
-        <v>-98.9774898257956</v>
+        <v>-98.97748982580443</v>
       </c>
       <c r="S4">
-        <v>149.6977460344275</v>
+        <v>151.1644730766122</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.389842862273669</v>
+        <v>1.28815414435865</v>
       </c>
       <c r="D5">
-        <v>1.271334315222708</v>
+        <v>1.1612410220713</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.04852301329966</v>
+        <v>14.87432284006398</v>
       </c>
       <c r="G5">
-        <v>14.68010418247678</v>
+        <v>13.40885633373802</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801567</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536784</v>
+        <v>0.9743985902535451</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033553027</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604313</v>
+        <v>0.9743985902605059</v>
       </c>
       <c r="M5">
-        <v>3.291772033564871</v>
+        <v>3.291772033564883</v>
       </c>
       <c r="N5">
-        <v>0.9467699198774839</v>
+        <v>0.9807270910839859</v>
       </c>
       <c r="O5">
-        <v>0.7610792363898121</v>
+        <v>0.7610792363895186</v>
       </c>
       <c r="P5">
-        <v>0.8821046938247634</v>
+        <v>0.9047921065884397</v>
       </c>
       <c r="Q5">
-        <v>19.72041245559807</v>
+        <v>19.71581980101482</v>
       </c>
       <c r="R5">
-        <v>-99.2264456857035</v>
+        <v>-99.22644568571467</v>
       </c>
       <c r="S5">
-        <v>150.6942704007944</v>
+        <v>152.3147410448943</v>
       </c>
       <c r="T5">
-        <v>1.569068326504255</v>
+        <v>1.175461947248358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9625161923336192</v>
+        <v>0.9941324957602696</v>
       </c>
       <c r="O6">
-        <v>0.7892411664004487</v>
+        <v>0.7892411664001461</v>
       </c>
       <c r="P6">
-        <v>0.8967976130201459</v>
+        <v>0.9168694858555421</v>
       </c>
       <c r="Q6">
-        <v>20.27026305687974</v>
+        <v>20.31148978572212</v>
       </c>
       <c r="R6">
-        <v>-99.09752580832854</v>
+        <v>-99.09752580833846</v>
       </c>
       <c r="S6">
-        <v>150.1878260752178</v>
+        <v>151.7320023171192</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8804584270027439</v>
+        <v>0.9588864008156979</v>
       </c>
       <c r="O2">
-        <v>0.8804584269810509</v>
+        <v>0.880458426982725</v>
       </c>
       <c r="P2">
-        <v>0.8804584269840272</v>
+        <v>0.9356029001458037</v>
       </c>
       <c r="Q2">
-        <v>26.83345461615415</v>
+        <v>25.86088848899019</v>
       </c>
       <c r="R2">
-        <v>-93.16654538443237</v>
+        <v>-93.16654538440248</v>
       </c>
       <c r="S2">
-        <v>146.8334546170761</v>
+        <v>150.48966773135</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5037062978684022</v>
+        <v>0.8774848453405778</v>
       </c>
       <c r="O3">
-        <v>0.5037062978020524</v>
+        <v>0.5037062977979688</v>
       </c>
       <c r="P3">
-        <v>0.50370629775516</v>
+        <v>0.6870401968576062</v>
       </c>
       <c r="Q3">
-        <v>-1.792556277737451</v>
+        <v>6.82175773809581</v>
       </c>
       <c r="R3">
-        <v>-121.792556288249</v>
+        <v>-121.7925562883107</v>
       </c>
       <c r="S3">
-        <v>118.2074437235355</v>
+        <v>151.8718114170269</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2014825192544586</v>
+        <v>0.7141078685940819</v>
       </c>
       <c r="O4">
-        <v>0.2014825191336014</v>
+        <v>0.2014825191290952</v>
       </c>
       <c r="P4">
-        <v>0.201482519115913</v>
+        <v>0.6321800213528085</v>
       </c>
       <c r="Q4">
-        <v>-1.792556257958193</v>
+        <v>-0.1665513518763345</v>
       </c>
       <c r="R4">
-        <v>-121.7925562836041</v>
+        <v>-121.7925562834491</v>
       </c>
       <c r="S4">
-        <v>118.2074437589754</v>
+        <v>164.0871282888399</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.212105638758383</v>
+        <v>3.272276204858587</v>
       </c>
       <c r="D5">
-        <v>5.212105639194839</v>
+        <v>2.597020540460276</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.18421187163838</v>
+        <v>37.78499095475825</v>
       </c>
       <c r="G5">
-        <v>60.18421187667813</v>
+        <v>29.98781016251456</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486821141</v>
       </c>
       <c r="J5">
-        <v>1.779351894005636</v>
+        <v>1.7793518940055</v>
       </c>
       <c r="K5">
-        <v>3.399730879266563</v>
+        <v>3.399730879266314</v>
       </c>
       <c r="L5">
-        <v>1.779351893992583</v>
+        <v>1.77935189399265</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.399730879243838</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6136770971571773</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6136770971571881</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-6.826665880475646</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>173.1733341188642</v>
       </c>
       <c r="T5">
-        <v>9.027631780706926</v>
+        <v>2.781828409061099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1007412597173992</v>
+        <v>0.6627779066671962</v>
       </c>
       <c r="O6">
-        <v>0.100741259578373</v>
+        <v>0.1007412595737255</v>
       </c>
       <c r="P6">
-        <v>0.1007412595704191</v>
+        <v>0.6209717674437645</v>
       </c>
       <c r="Q6">
-        <v>-1.792556224682766</v>
+        <v>-3.244447945700508</v>
       </c>
       <c r="R6">
-        <v>-121.7925562755526</v>
+        <v>-121.7925562750358</v>
       </c>
       <c r="S6">
-        <v>118.2074438183517</v>
+        <v>168.5626172995628</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8804584270027439</v>
+        <v>0.9588864008156979</v>
       </c>
       <c r="O2">
-        <v>0.8804584269810509</v>
+        <v>0.880458426982725</v>
       </c>
       <c r="P2">
-        <v>0.8804584269840272</v>
+        <v>0.9356029001458037</v>
       </c>
       <c r="Q2">
-        <v>26.83345461615415</v>
+        <v>25.86088848899019</v>
       </c>
       <c r="R2">
-        <v>-93.16654538443237</v>
+        <v>-93.16654538440248</v>
       </c>
       <c r="S2">
-        <v>146.8334546170761</v>
+        <v>150.48966773135</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5037062978684022</v>
+        <v>0.8774848453405778</v>
       </c>
       <c r="O3">
-        <v>0.5037062978020524</v>
+        <v>0.5037062977979688</v>
       </c>
       <c r="P3">
-        <v>0.50370629775516</v>
+        <v>0.6870401968576062</v>
       </c>
       <c r="Q3">
-        <v>-1.792556277737451</v>
+        <v>6.82175773809581</v>
       </c>
       <c r="R3">
-        <v>-121.792556288249</v>
+        <v>-121.7925562883107</v>
       </c>
       <c r="S3">
-        <v>118.2074437235355</v>
+        <v>151.8718114170269</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2014825192544586</v>
+        <v>0.7141078685940819</v>
       </c>
       <c r="O4">
-        <v>0.2014825191336014</v>
+        <v>0.2014825191290952</v>
       </c>
       <c r="P4">
-        <v>0.201482519115913</v>
+        <v>0.6321800213528085</v>
       </c>
       <c r="Q4">
-        <v>-1.792556257958193</v>
+        <v>-0.1665513518763345</v>
       </c>
       <c r="R4">
-        <v>-121.7925562836041</v>
+        <v>-121.7925562834491</v>
       </c>
       <c r="S4">
-        <v>118.2074437589754</v>
+        <v>164.0871282888399</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.212105638758383</v>
+        <v>3.272276204858587</v>
       </c>
       <c r="D5">
-        <v>5.212105639194839</v>
+        <v>2.597020540460276</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.18421187163838</v>
+        <v>37.78499095475825</v>
       </c>
       <c r="G5">
-        <v>60.18421187667813</v>
+        <v>29.98781016251456</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486821141</v>
       </c>
       <c r="J5">
-        <v>1.779351894005636</v>
+        <v>1.7793518940055</v>
       </c>
       <c r="K5">
-        <v>3.399730879266563</v>
+        <v>3.399730879266314</v>
       </c>
       <c r="L5">
-        <v>1.779351893992583</v>
+        <v>1.77935189399265</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.399730879243838</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6136770971571773</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6136770971571881</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-6.826665880475646</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>173.1733341188642</v>
       </c>
       <c r="T5">
-        <v>9.027631780706926</v>
+        <v>2.781828409061099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1007412597173992</v>
+        <v>0.6627779066671962</v>
       </c>
       <c r="O6">
-        <v>0.100741259578373</v>
+        <v>0.1007412595737255</v>
       </c>
       <c r="P6">
-        <v>0.1007412595704191</v>
+        <v>0.6209717674437645</v>
       </c>
       <c r="Q6">
-        <v>-1.792556224682766</v>
+        <v>-3.244447945700508</v>
       </c>
       <c r="R6">
-        <v>-121.7925562755526</v>
+        <v>-121.7925562750358</v>
       </c>
       <c r="S6">
-        <v>118.2074438183517</v>
+        <v>168.5626172995628</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9843405649673951</v>
+        <v>0.9888952250995549</v>
       </c>
       <c r="O2">
-        <v>0.9615729355894181</v>
+        <v>0.9615729355896063</v>
       </c>
       <c r="P2">
-        <v>0.9724521912288459</v>
+        <v>0.9746630675618518</v>
       </c>
       <c r="Q2">
-        <v>28.53657515969511</v>
+        <v>28.54689910773494</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889205</v>
+        <v>-91.51132863889156</v>
       </c>
       <c r="S2">
-        <v>149.6747068351959</v>
+        <v>149.9092937606624</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9375391802455808</v>
+        <v>0.9591641445341564</v>
       </c>
       <c r="O3">
-        <v>0.8296997009410964</v>
+        <v>0.8296997009410104</v>
       </c>
       <c r="P3">
-        <v>0.8688572961474456</v>
+        <v>0.8780685594722728</v>
       </c>
       <c r="Q3">
-        <v>22.30837627642724</v>
+        <v>22.56980476385551</v>
       </c>
       <c r="R3">
-        <v>-99.17392234672847</v>
+        <v>-99.1739223467282</v>
       </c>
       <c r="S3">
-        <v>147.7835014710103</v>
+        <v>149.0979502596869</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8699546445373587</v>
+        <v>0.8990638781133097</v>
       </c>
       <c r="O4">
-        <v>0.7246674127323595</v>
+        <v>0.7246674127322635</v>
       </c>
       <c r="P4">
-        <v>0.8201110567856946</v>
+        <v>0.8408775586513739</v>
       </c>
       <c r="Q4">
-        <v>21.39807920673417</v>
+        <v>21.22802865838054</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595901</v>
+        <v>-97.50360857595673</v>
       </c>
       <c r="S4">
-        <v>150.7228482726652</v>
+        <v>152.1418921701805</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.191529891745418</v>
+        <v>1.102244796662374</v>
       </c>
       <c r="D5">
-        <v>1.124439110801036</v>
+        <v>1.015403735094619</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.75860207493405</v>
+        <v>12.72762660131772</v>
       </c>
       <c r="G5">
-        <v>12.98390446616643</v>
+        <v>11.7248723958606</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486821141</v>
       </c>
       <c r="J5">
-        <v>1.779351894005636</v>
+        <v>1.7793518940055</v>
       </c>
       <c r="K5">
-        <v>3.399730879266563</v>
+        <v>3.399730879266314</v>
       </c>
       <c r="L5">
-        <v>1.779351893992583</v>
+        <v>1.77935189399265</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.399730879243838</v>
       </c>
       <c r="N5">
-        <v>0.8250369273897885</v>
+        <v>0.8593028335032681</v>
       </c>
       <c r="O5">
-        <v>0.655079355271062</v>
+        <v>0.6550793552709604</v>
       </c>
       <c r="P5">
-        <v>0.7889349581209018</v>
+        <v>0.817500664482787</v>
       </c>
       <c r="Q5">
-        <v>20.70847462310719</v>
+        <v>20.22959831857465</v>
       </c>
       <c r="R5">
-        <v>-96.09329345653627</v>
+        <v>-96.09329345653229</v>
       </c>
       <c r="S5">
-        <v>152.8804881504156</v>
+        <v>154.3210355505352</v>
       </c>
       <c r="T5">
-        <v>1.391108155414494</v>
+        <v>1.029050523756141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8474804505269405</v>
+        <v>0.8791500012749368</v>
       </c>
       <c r="O6">
-        <v>0.6898212699575317</v>
+        <v>0.6898212699574328</v>
       </c>
       <c r="P6">
-        <v>0.8043804515477033</v>
+        <v>0.8290392153947774</v>
       </c>
       <c r="Q6">
-        <v>21.06241437571038</v>
+        <v>20.74010227079546</v>
       </c>
       <c r="R6">
-        <v>-96.83401769911636</v>
+        <v>-96.83401769911323</v>
       </c>
       <c r="S6">
-        <v>151.7807630477585</v>
+        <v>153.2161031471933</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9843405649673951</v>
+        <v>0.9888952250995549</v>
       </c>
       <c r="O2">
-        <v>0.9615729355894181</v>
+        <v>0.9615729355896063</v>
       </c>
       <c r="P2">
-        <v>0.9724521912288459</v>
+        <v>0.9746630675618518</v>
       </c>
       <c r="Q2">
-        <v>28.53657515969511</v>
+        <v>28.54689910773494</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889205</v>
+        <v>-91.51132863889156</v>
       </c>
       <c r="S2">
-        <v>149.6747068351959</v>
+        <v>149.9092937606624</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9375391802455808</v>
+        <v>0.9591641445341564</v>
       </c>
       <c r="O3">
-        <v>0.8296997009410964</v>
+        <v>0.8296997009410104</v>
       </c>
       <c r="P3">
-        <v>0.8688572961474456</v>
+        <v>0.8780685594722728</v>
       </c>
       <c r="Q3">
-        <v>22.30837627642724</v>
+        <v>22.56980476385551</v>
       </c>
       <c r="R3">
-        <v>-99.17392234672847</v>
+        <v>-99.1739223467282</v>
       </c>
       <c r="S3">
-        <v>147.7835014710103</v>
+        <v>149.0979502596869</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8699546445373587</v>
+        <v>0.8990638781133097</v>
       </c>
       <c r="O4">
-        <v>0.7246674127323595</v>
+        <v>0.7246674127322635</v>
       </c>
       <c r="P4">
-        <v>0.8201110567856946</v>
+        <v>0.8408775586513739</v>
       </c>
       <c r="Q4">
-        <v>21.39807920673417</v>
+        <v>21.22802865838054</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595901</v>
+        <v>-97.50360857595673</v>
       </c>
       <c r="S4">
-        <v>150.7228482726652</v>
+        <v>152.1418921701805</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.191529891745418</v>
+        <v>1.102244796662374</v>
       </c>
       <c r="D5">
-        <v>1.124439110801036</v>
+        <v>1.015403735094619</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.75860207493405</v>
+        <v>12.72762660131772</v>
       </c>
       <c r="G5">
-        <v>12.98390446616643</v>
+        <v>11.7248723958606</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.395445584631516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.817278486821141</v>
       </c>
       <c r="J5">
-        <v>1.779351894005636</v>
+        <v>1.7793518940055</v>
       </c>
       <c r="K5">
-        <v>3.399730879266563</v>
+        <v>3.399730879266314</v>
       </c>
       <c r="L5">
-        <v>1.779351893992583</v>
+        <v>1.77935189399265</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.399730879243838</v>
       </c>
       <c r="N5">
-        <v>0.8250369273897885</v>
+        <v>0.8593028335032681</v>
       </c>
       <c r="O5">
-        <v>0.655079355271062</v>
+        <v>0.6550793552709604</v>
       </c>
       <c r="P5">
-        <v>0.7889349581209018</v>
+        <v>0.817500664482787</v>
       </c>
       <c r="Q5">
-        <v>20.70847462310719</v>
+        <v>20.22959831857465</v>
       </c>
       <c r="R5">
-        <v>-96.09329345653627</v>
+        <v>-96.09329345653229</v>
       </c>
       <c r="S5">
-        <v>152.8804881504156</v>
+        <v>154.3210355505352</v>
       </c>
       <c r="T5">
-        <v>1.391108155414494</v>
+        <v>1.029050523756141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8474804505269405</v>
+        <v>0.8791500012749368</v>
       </c>
       <c r="O6">
-        <v>0.6898212699575317</v>
+        <v>0.6898212699574328</v>
       </c>
       <c r="P6">
-        <v>0.8043804515477033</v>
+        <v>0.8290392153947774</v>
       </c>
       <c r="Q6">
-        <v>21.06241437571038</v>
+        <v>20.74010227079546</v>
       </c>
       <c r="R6">
-        <v>-96.83401769911636</v>
+        <v>-96.83401769911323</v>
       </c>
       <c r="S6">
-        <v>151.7807630477585</v>
+        <v>153.2161031471933</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.058332742123209</v>
+        <v>1.05833274212321</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621023</v>
+        <v>0.4199934651621022</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134004</v>
+        <v>0.8849458407134011</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971092</v>
+        <v>10.36827052971093</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535645</v>
+        <v>-114.9022326535644</v>
       </c>
       <c r="S3">
         <v>167.570584904511</v>
@@ -10656,19 +10656,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9909306888778326</v>
+        <v>0.9909306888778332</v>
       </c>
       <c r="O4">
         <v>0.1679973860669872</v>
       </c>
       <c r="P4">
-        <v>0.9204173017492231</v>
+        <v>0.9204173017492241</v>
       </c>
       <c r="Q4">
-        <v>4.409620443404044</v>
+        <v>4.40962044340407</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490688</v>
+        <v>-114.9022326490686</v>
       </c>
       <c r="S4">
         <v>175.2518098001975</v>
@@ -10682,49 +10682,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.204231799390412</v>
+        <v>3.204231799390406</v>
       </c>
       <c r="D5">
-        <v>3.204231799390412</v>
+        <v>3.204231799390406</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848027</v>
+        <v>36.99928183848019</v>
       </c>
       <c r="G5">
-        <v>36.99928183848027</v>
+        <v>36.99928183848019</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.031856995199869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.741005764801567</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536784</v>
+        <v>0.9743985902535451</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033553027</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604313</v>
+        <v>0.9743985902605059</v>
       </c>
       <c r="M5">
-        <v>3.291772033564871</v>
+        <v>3.291772033564883</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039775</v>
+        <v>0.952627964803978</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057683</v>
+        <v>0.9526279648057694</v>
       </c>
       <c r="Q5">
-        <v>-1.430941311343419E-11</v>
+        <v>-1.42747886187821E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10774,19 +10774,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679121</v>
+        <v>0.971060188467913</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568247</v>
+        <v>0.08399869303568271</v>
       </c>
       <c r="P6">
-        <v>0.935719017250938</v>
+        <v>0.9357190172509392</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886328</v>
+        <v>2.24828301888636</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412661</v>
+        <v>-114.9022326412656</v>
       </c>
       <c r="S6">
         <v>177.6667554660107</v>
